--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709384625929943</v>
+        <v>2.709384625929886</v>
       </c>
       <c r="C2">
-        <v>1.088853576300039</v>
+        <v>1.088853576299982</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002733815574739396</v>
+        <v>0.002733815574735399</v>
       </c>
       <c r="F2">
-        <v>2.098168083696407</v>
+        <v>2.098168083696393</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>1.734620080553299</v>
       </c>
       <c r="I2">
-        <v>0.2019954001269042</v>
+        <v>0.2019954001269149</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1012651221426211</v>
+        <v>0.101265122142582</v>
       </c>
       <c r="L2">
-        <v>0.6110686608863318</v>
+        <v>0.6110686608863389</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>2.330029495961128</v>
       </c>
       <c r="C3">
-        <v>0.9338745161609552</v>
+        <v>0.9338745161612394</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002509439113572931</v>
+        <v>0.002509439113583589</v>
       </c>
       <c r="F3">
-        <v>1.83033783886296</v>
+        <v>1.830337838862945</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.561702267920126</v>
+        <v>1.56170226792014</v>
       </c>
       <c r="I3">
-        <v>0.1950354008132038</v>
+        <v>0.1950354008132003</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08742723285246967</v>
+        <v>0.08742723285248744</v>
       </c>
       <c r="L3">
-        <v>0.5261144813088947</v>
+        <v>0.5261144813089089</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.101264825058479</v>
+        <v>2.101264825058308</v>
       </c>
       <c r="C4">
-        <v>0.8407128119561378</v>
+        <v>0.840712811955882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002378662503782714</v>
+        <v>0.002378662503809803</v>
       </c>
       <c r="F4">
-        <v>1.669777730893344</v>
+        <v>1.66977773089333</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.459347480288685</v>
+        <v>1.459347480288713</v>
       </c>
       <c r="I4">
-        <v>0.191147846583533</v>
+        <v>0.1911478465835366</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07905663096855164</v>
+        <v>0.0790566309685623</v>
       </c>
       <c r="L4">
-        <v>0.4748289198664608</v>
+        <v>0.474828919866475</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.008924370268346</v>
+        <v>2.00892437026846</v>
       </c>
       <c r="C5">
-        <v>0.8031711722124726</v>
+        <v>0.8031711722122736</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.002326836701034285</v>
+        <v>0.002326836701072033</v>
       </c>
       <c r="F5">
-        <v>1.605202825457226</v>
+        <v>1.605202825457241</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>1.418483800759049</v>
       </c>
       <c r="I5">
-        <v>0.1896500362417868</v>
+        <v>0.1896500362417477</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.07567272380701695</v>
+        <v>0.07567272380700629</v>
       </c>
       <c r="L5">
         <v>0.4541166175148277</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.993640174972199</v>
+        <v>1.993640174972342</v>
       </c>
       <c r="C6">
-        <v>0.7969607603370719</v>
+        <v>0.7969607603373277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002318312218530849</v>
+        <v>0.002318312218510865</v>
       </c>
       <c r="F6">
-        <v>1.5945284334326</v>
+        <v>1.594528433432586</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.411746447964603</v>
+        <v>1.411746447964589</v>
       </c>
       <c r="I6">
-        <v>0.1894062544372979</v>
+        <v>0.1894062544372694</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.07511234674604239</v>
+        <v>0.07511234674602463</v>
       </c>
       <c r="L6">
-        <v>0.4506877315711932</v>
+        <v>0.4506877315712003</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.100016118055748</v>
+        <v>2.100016118055862</v>
       </c>
       <c r="C7">
-        <v>0.840204900657767</v>
+        <v>0.8402049006582217</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.002377957967455657</v>
+        <v>0.002377957967419242</v>
       </c>
       <c r="F7">
-        <v>1.668903545654658</v>
+        <v>1.668903545654686</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.458793091984845</v>
+        <v>1.458793091984859</v>
       </c>
       <c r="I7">
-        <v>0.1911273100053208</v>
+        <v>0.1911273100053386</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07901088999358308</v>
+        <v>0.07901088999359018</v>
       </c>
       <c r="L7">
         <v>0.474548871310347</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.577615647471646</v>
+        <v>2.57761564747176</v>
       </c>
       <c r="C8">
-        <v>1.034952039354494</v>
+        <v>1.03495203935455</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.002654804771335062</v>
+        <v>0.002654804771338615</v>
       </c>
       <c r="F8">
         <v>2.00493532937422</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.674134077192235</v>
+        <v>1.674134077192221</v>
       </c>
       <c r="I8">
-        <v>0.199508718336336</v>
+        <v>0.1995087183363324</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.09646485355790091</v>
+        <v>0.09646485355790801</v>
       </c>
       <c r="L8">
-        <v>0.5815732949129924</v>
+        <v>0.5815732949129995</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.555588915565579</v>
+        <v>3.555588915565465</v>
       </c>
       <c r="C9">
-        <v>1.436771731276508</v>
+        <v>1.436771731276451</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.003270134898098576</v>
+        <v>0.003270134898099464</v>
       </c>
       <c r="F9">
-        <v>2.700976448541525</v>
+        <v>2.700976448541468</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.132462435286186</v>
+        <v>2.132462435286172</v>
       </c>
       <c r="I9">
-        <v>0.2195564565941019</v>
+        <v>0.2195564565941304</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1319179119416631</v>
+        <v>0.1319179119417058</v>
       </c>
       <c r="L9">
-        <v>0.8001143826478554</v>
+        <v>0.8001143826478625</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.31290206638937</v>
+        <v>4.312902066389483</v>
       </c>
       <c r="C10">
-        <v>1.750748613509643</v>
+        <v>1.750748613509074</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.003797790035400261</v>
+        <v>0.003797790035365178</v>
       </c>
       <c r="F10">
         <v>3.244851166400878</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.500383178554117</v>
+        <v>2.500383178554102</v>
       </c>
       <c r="I10">
-        <v>0.2373855149138819</v>
+        <v>0.2373855149138748</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1590719393925006</v>
+        <v>0.1590719393925042</v>
       </c>
       <c r="L10">
-        <v>0.9687082911381495</v>
+        <v>0.9687082911381637</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.669512848802128</v>
+        <v>4.669512848802356</v>
       </c>
       <c r="C11">
-        <v>1.899455827121017</v>
+        <v>1.899455827121301</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.004064266852636056</v>
+        <v>0.004064266852632503</v>
       </c>
       <c r="F11">
-        <v>3.501940000251722</v>
+        <v>3.501940000251693</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.676998819129636</v>
+        <v>2.676998819129665</v>
       </c>
       <c r="I11">
         <v>0.2464173478200955</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1717595190394086</v>
+        <v>0.171759519039437</v>
       </c>
       <c r="L11">
-        <v>1.047886372587612</v>
+        <v>1.04788637258762</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.806661567286255</v>
+        <v>4.806661567286426</v>
       </c>
       <c r="C12">
         <v>1.956794440738918</v>
@@ -801,25 +801,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.00417012638998937</v>
+        <v>0.004170126390062201</v>
       </c>
       <c r="F12">
-        <v>3.600941999773283</v>
+        <v>3.600941999773312</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.74545510674497</v>
+        <v>2.745455106744998</v>
       </c>
       <c r="I12">
-        <v>0.2499954381683693</v>
+        <v>0.2499954381683729</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1766213568444464</v>
+        <v>0.1766213568444535</v>
       </c>
       <c r="L12">
         <v>1.078299670284473</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.777023847919793</v>
+        <v>4.777023847919509</v>
       </c>
       <c r="C13">
         <v>1.944396659466463</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.004147085696925235</v>
+        <v>0.004147085696987851</v>
       </c>
       <c r="F13">
-        <v>3.579542332976018</v>
+        <v>3.579542332976047</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>2.730637370744802</v>
       </c>
       <c r="I13">
-        <v>0.2492173508043116</v>
+        <v>0.2492173508043329</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1755715631701698</v>
+        <v>0.1755715631702088</v>
       </c>
       <c r="L13">
-        <v>1.071729190288416</v>
+        <v>1.071729190288423</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.68075157848898</v>
+        <v>4.680751578488696</v>
       </c>
       <c r="C14">
-        <v>1.90415138505648</v>
+        <v>1.904151385055798</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.004072869038278526</v>
+        <v>0.004072869038319826</v>
       </c>
       <c r="F14">
         <v>3.510050312648104</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.682597620529378</v>
+        <v>2.682597620529364</v>
       </c>
       <c r="I14">
-        <v>0.246708391238311</v>
+        <v>0.2467083912383288</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.1721582992127679</v>
       </c>
       <c r="L14">
-        <v>1.050379407320008</v>
+        <v>1.050379407320023</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.62206853274273</v>
+        <v>4.62206853274256</v>
       </c>
       <c r="C15">
-        <v>1.879639588444547</v>
+        <v>1.879639588444775</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.004028093415741729</v>
+        <v>0.004028093415822998</v>
       </c>
       <c r="F15">
         <v>3.467707360276762</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.653385106012067</v>
+        <v>2.653385106012053</v>
       </c>
       <c r="I15">
-        <v>0.2451929856624488</v>
+        <v>0.2451929856624275</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1700753365994032</v>
+        <v>0.170075336599357</v>
       </c>
       <c r="L15">
         <v>1.037360459539251</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.28987029347212</v>
+        <v>4.289870293472234</v>
       </c>
       <c r="C16">
-        <v>1.741163303574695</v>
+        <v>1.741163303574808</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.003780998411831327</v>
+        <v>0.003780998411770931</v>
       </c>
       <c r="F16">
-        <v>3.228265577030299</v>
+        <v>3.228265577030271</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.489047127425678</v>
+        <v>2.489047127425664</v>
       </c>
       <c r="I16">
-        <v>0.2368158719302969</v>
+        <v>0.2368158719302684</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.158250270374463</v>
+        <v>0.1582502703744098</v>
       </c>
       <c r="L16">
         <v>0.963589780302982</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.08942023598712</v>
+        <v>4.089420235986893</v>
       </c>
       <c r="C17">
-        <v>1.657837359318933</v>
+        <v>1.657837359319558</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.003636909581113734</v>
+        <v>0.003636909581157699</v>
       </c>
       <c r="F17">
-        <v>3.084024901190077</v>
+        <v>3.084024901190134</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.390762217134935</v>
+        <v>2.390762217134949</v>
       </c>
       <c r="I17">
-        <v>0.2319294302112525</v>
+        <v>0.2319294302112809</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1510878947164045</v>
+        <v>0.1510878947164151</v>
       </c>
       <c r="L17">
-        <v>0.9190184276817845</v>
+        <v>0.9190184276817916</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.97524077464044</v>
+        <v>3.975240774640497</v>
       </c>
       <c r="C18">
-        <v>1.610451187604099</v>
+        <v>1.610451187604383</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003556437959270298</v>
+        <v>0.003556437959213898</v>
       </c>
       <c r="F18">
-        <v>3.001954915014181</v>
+        <v>3.001954915014153</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.335084793598853</v>
+        <v>2.33508479359881</v>
       </c>
       <c r="I18">
-        <v>0.2292038246335082</v>
+        <v>0.2292038246334975</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1469992052940405</v>
+        <v>0.1469992052940334</v>
       </c>
       <c r="L18">
-        <v>0.8936109473392904</v>
+        <v>0.8936109473392762</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936762715967575</v>
+        <v>3.936762715967689</v>
       </c>
       <c r="C19">
-        <v>1.594494886605219</v>
+        <v>1.594494886605446</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.003529574527745716</v>
+        <v>0.003529574527760371</v>
       </c>
       <c r="F19">
-        <v>2.974313686661702</v>
+        <v>2.974313686661645</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.316373097158078</v>
+        <v>2.316373097158049</v>
       </c>
       <c r="I19">
-        <v>0.2282948700497762</v>
+        <v>0.2282948700497691</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1456198983635026</v>
+        <v>0.145619898363492</v>
       </c>
       <c r="L19">
-        <v>0.8850456657240073</v>
+        <v>0.8850456657240144</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.110640716533737</v>
+        <v>4.11064071653368</v>
       </c>
       <c r="C20">
-        <v>1.66665037342807</v>
+        <v>1.666650373427785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.003651991893291573</v>
+        <v>0.003651991893301343</v>
       </c>
       <c r="F20">
         <v>3.099285366667033</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.40113482846651</v>
+        <v>2.401134828466539</v>
       </c>
       <c r="I20">
-        <v>0.2324406391241247</v>
+        <v>0.2324406391241318</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.151847079741831</v>
+        <v>0.1518470797418487</v>
       </c>
       <c r="L20">
-        <v>0.9237389540438414</v>
+        <v>0.9237389540438699</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.708968623932151</v>
+        <v>4.708968623931924</v>
       </c>
       <c r="C21">
-        <v>1.915942935916689</v>
+        <v>1.915942935916405</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.004094523160406816</v>
+        <v>0.004094523160400154</v>
       </c>
       <c r="F21">
-        <v>3.530414832171004</v>
+        <v>3.530414832170976</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.696663125808243</v>
+        <v>2.696663125808257</v>
       </c>
       <c r="I21">
-        <v>0.2474408203569318</v>
+        <v>0.2474408203569638</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1731592220943305</v>
+        <v>0.1731592220943377</v>
       </c>
       <c r="L21">
-        <v>1.056638035316304</v>
+        <v>1.056638035316269</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.112516605679616</v>
+        <v>5.112516605679559</v>
       </c>
       <c r="C22">
-        <v>2.084961673795533</v>
+        <v>2.084961673794908</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.00441338344710962</v>
+        <v>0.004413383447066099</v>
       </c>
       <c r="F22">
         <v>3.821938625939396</v>
@@ -1193,16 +1193,16 @@
         <v>2.899138740357984</v>
       </c>
       <c r="I22">
-        <v>0.2581803882593547</v>
+        <v>0.258180388259337</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.187427361949176</v>
+        <v>0.1874273619491547</v>
       </c>
       <c r="L22">
-        <v>1.146046484577816</v>
+        <v>1.146046484577795</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.895852400016452</v>
+        <v>4.895852400016679</v>
       </c>
       <c r="C23">
-        <v>1.994127113823595</v>
+        <v>1.994127113823311</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.004240021180025089</v>
+        <v>0.004240021180035303</v>
       </c>
       <c r="F23">
-        <v>3.665358558648308</v>
+        <v>3.665358558648279</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>2.790127312218686</v>
       </c>
       <c r="I23">
-        <v>0.2523530941828263</v>
+        <v>0.2523530941828298</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1797777394524758</v>
+        <v>0.1797777394524473</v>
       </c>
       <c r="L23">
-        <v>1.098066606990045</v>
+        <v>1.098066606990052</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.101043656410752</v>
+        <v>4.101043656410923</v>
       </c>
       <c r="C24">
-        <v>1.662664406339445</v>
+        <v>1.662664406338934</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.003645165889204716</v>
+        <v>0.003645165889202495</v>
       </c>
       <c r="F24">
         <v>3.092383463122985</v>
@@ -1269,7 +1269,7 @@
         <v>2.396442810261874</v>
       </c>
       <c r="I24">
-        <v>0.2322092628045525</v>
+        <v>0.2322092628045453</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.1515037623614788</v>
       </c>
       <c r="L24">
-        <v>0.9216041329499376</v>
+        <v>0.9216041329499234</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.28530581294018</v>
+        <v>3.285305812940351</v>
       </c>
       <c r="C25">
-        <v>1.325311240907354</v>
+        <v>1.325311240907183</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.003093156523649387</v>
+        <v>0.003093156523656493</v>
       </c>
       <c r="F25">
         <v>2.507764091334622</v>
@@ -1307,16 +1307,16 @@
         <v>2.003738054184211</v>
       </c>
       <c r="I25">
-        <v>0.213662027640396</v>
+        <v>0.2136620276403889</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1221612557703544</v>
+        <v>0.1221612557703473</v>
       </c>
       <c r="L25">
-        <v>0.7398043408040209</v>
+        <v>0.7398043408040138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709384625929886</v>
+        <v>2.709384625929943</v>
       </c>
       <c r="C2">
-        <v>1.088853576299982</v>
+        <v>1.088853576300039</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002733815574735399</v>
+        <v>0.002733815574739396</v>
       </c>
       <c r="F2">
-        <v>2.098168083696393</v>
+        <v>2.098168083696407</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>1.734620080553299</v>
       </c>
       <c r="I2">
-        <v>0.2019954001269149</v>
+        <v>0.2019954001269042</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.101265122142582</v>
+        <v>0.1012651221426211</v>
       </c>
       <c r="L2">
-        <v>0.6110686608863389</v>
+        <v>0.6110686608863318</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>2.330029495961128</v>
       </c>
       <c r="C3">
-        <v>0.9338745161612394</v>
+        <v>0.9338745161609552</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002509439113583589</v>
+        <v>0.002509439113572931</v>
       </c>
       <c r="F3">
-        <v>1.830337838862945</v>
+        <v>1.83033783886296</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.56170226792014</v>
+        <v>1.561702267920126</v>
       </c>
       <c r="I3">
-        <v>0.1950354008132003</v>
+        <v>0.1950354008132038</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.08742723285248744</v>
+        <v>0.08742723285246967</v>
       </c>
       <c r="L3">
-        <v>0.5261144813089089</v>
+        <v>0.5261144813088947</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.101264825058308</v>
+        <v>2.101264825058479</v>
       </c>
       <c r="C4">
-        <v>0.840712811955882</v>
+        <v>0.8407128119561378</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002378662503809803</v>
+        <v>0.002378662503782714</v>
       </c>
       <c r="F4">
-        <v>1.66977773089333</v>
+        <v>1.669777730893344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.459347480288713</v>
+        <v>1.459347480288685</v>
       </c>
       <c r="I4">
-        <v>0.1911478465835366</v>
+        <v>0.191147846583533</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0790566309685623</v>
+        <v>0.07905663096855164</v>
       </c>
       <c r="L4">
-        <v>0.474828919866475</v>
+        <v>0.4748289198664608</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.00892437026846</v>
+        <v>2.008924370268346</v>
       </c>
       <c r="C5">
-        <v>0.8031711722122736</v>
+        <v>0.8031711722124726</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.002326836701072033</v>
+        <v>0.002326836701034285</v>
       </c>
       <c r="F5">
-        <v>1.605202825457241</v>
+        <v>1.605202825457226</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>1.418483800759049</v>
       </c>
       <c r="I5">
-        <v>0.1896500362417477</v>
+        <v>0.1896500362417868</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.07567272380700629</v>
+        <v>0.07567272380701695</v>
       </c>
       <c r="L5">
         <v>0.4541166175148277</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.993640174972342</v>
+        <v>1.993640174972199</v>
       </c>
       <c r="C6">
-        <v>0.7969607603373277</v>
+        <v>0.7969607603370719</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002318312218510865</v>
+        <v>0.002318312218530849</v>
       </c>
       <c r="F6">
-        <v>1.594528433432586</v>
+        <v>1.5945284334326</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.411746447964589</v>
+        <v>1.411746447964603</v>
       </c>
       <c r="I6">
-        <v>0.1894062544372694</v>
+        <v>0.1894062544372979</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.07511234674602463</v>
+        <v>0.07511234674604239</v>
       </c>
       <c r="L6">
-        <v>0.4506877315712003</v>
+        <v>0.4506877315711932</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.100016118055862</v>
+        <v>2.100016118055748</v>
       </c>
       <c r="C7">
-        <v>0.8402049006582217</v>
+        <v>0.840204900657767</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.002377957967419242</v>
+        <v>0.002377957967455657</v>
       </c>
       <c r="F7">
-        <v>1.668903545654686</v>
+        <v>1.668903545654658</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.458793091984859</v>
+        <v>1.458793091984845</v>
       </c>
       <c r="I7">
-        <v>0.1911273100053386</v>
+        <v>0.1911273100053208</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07901088999359018</v>
+        <v>0.07901088999358308</v>
       </c>
       <c r="L7">
         <v>0.474548871310347</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.57761564747176</v>
+        <v>2.577615647471646</v>
       </c>
       <c r="C8">
-        <v>1.03495203935455</v>
+        <v>1.034952039354494</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.002654804771338615</v>
+        <v>0.002654804771335062</v>
       </c>
       <c r="F8">
         <v>2.00493532937422</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.674134077192221</v>
+        <v>1.674134077192235</v>
       </c>
       <c r="I8">
-        <v>0.1995087183363324</v>
+        <v>0.199508718336336</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.09646485355790801</v>
+        <v>0.09646485355790091</v>
       </c>
       <c r="L8">
-        <v>0.5815732949129995</v>
+        <v>0.5815732949129924</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.555588915565465</v>
+        <v>3.555588915565579</v>
       </c>
       <c r="C9">
-        <v>1.436771731276451</v>
+        <v>1.436771731276508</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.003270134898099464</v>
+        <v>0.003270134898098576</v>
       </c>
       <c r="F9">
-        <v>2.700976448541468</v>
+        <v>2.700976448541525</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.132462435286172</v>
+        <v>2.132462435286186</v>
       </c>
       <c r="I9">
-        <v>0.2195564565941304</v>
+        <v>0.2195564565941019</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1319179119417058</v>
+        <v>0.1319179119416631</v>
       </c>
       <c r="L9">
-        <v>0.8001143826478625</v>
+        <v>0.8001143826478554</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.312902066389483</v>
+        <v>4.31290206638937</v>
       </c>
       <c r="C10">
-        <v>1.750748613509074</v>
+        <v>1.750748613509643</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.003797790035365178</v>
+        <v>0.003797790035400261</v>
       </c>
       <c r="F10">
         <v>3.244851166400878</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.500383178554102</v>
+        <v>2.500383178554117</v>
       </c>
       <c r="I10">
-        <v>0.2373855149138748</v>
+        <v>0.2373855149138819</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1590719393925042</v>
+        <v>0.1590719393925006</v>
       </c>
       <c r="L10">
-        <v>0.9687082911381637</v>
+        <v>0.9687082911381495</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.669512848802356</v>
+        <v>4.669512848802128</v>
       </c>
       <c r="C11">
-        <v>1.899455827121301</v>
+        <v>1.899455827121017</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.004064266852632503</v>
+        <v>0.004064266852636056</v>
       </c>
       <c r="F11">
-        <v>3.501940000251693</v>
+        <v>3.501940000251722</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.676998819129665</v>
+        <v>2.676998819129636</v>
       </c>
       <c r="I11">
         <v>0.2464173478200955</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.171759519039437</v>
+        <v>0.1717595190394086</v>
       </c>
       <c r="L11">
-        <v>1.04788637258762</v>
+        <v>1.047886372587612</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.806661567286426</v>
+        <v>4.806661567286255</v>
       </c>
       <c r="C12">
         <v>1.956794440738918</v>
@@ -801,25 +801,25 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.004170126390062201</v>
+        <v>0.00417012638998937</v>
       </c>
       <c r="F12">
-        <v>3.600941999773312</v>
+        <v>3.600941999773283</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.745455106744998</v>
+        <v>2.74545510674497</v>
       </c>
       <c r="I12">
-        <v>0.2499954381683729</v>
+        <v>0.2499954381683693</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1766213568444535</v>
+        <v>0.1766213568444464</v>
       </c>
       <c r="L12">
         <v>1.078299670284473</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.777023847919509</v>
+        <v>4.777023847919793</v>
       </c>
       <c r="C13">
         <v>1.944396659466463</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.004147085696987851</v>
+        <v>0.004147085696925235</v>
       </c>
       <c r="F13">
-        <v>3.579542332976047</v>
+        <v>3.579542332976018</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>2.730637370744802</v>
       </c>
       <c r="I13">
-        <v>0.2492173508043329</v>
+        <v>0.2492173508043116</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1755715631702088</v>
+        <v>0.1755715631701698</v>
       </c>
       <c r="L13">
-        <v>1.071729190288423</v>
+        <v>1.071729190288416</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.680751578488696</v>
+        <v>4.68075157848898</v>
       </c>
       <c r="C14">
-        <v>1.904151385055798</v>
+        <v>1.90415138505648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.004072869038319826</v>
+        <v>0.004072869038278526</v>
       </c>
       <c r="F14">
         <v>3.510050312648104</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.682597620529364</v>
+        <v>2.682597620529378</v>
       </c>
       <c r="I14">
-        <v>0.2467083912383288</v>
+        <v>0.246708391238311</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.1721582992127679</v>
       </c>
       <c r="L14">
-        <v>1.050379407320023</v>
+        <v>1.050379407320008</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.62206853274256</v>
+        <v>4.62206853274273</v>
       </c>
       <c r="C15">
-        <v>1.879639588444775</v>
+        <v>1.879639588444547</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.004028093415822998</v>
+        <v>0.004028093415741729</v>
       </c>
       <c r="F15">
         <v>3.467707360276762</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.653385106012053</v>
+        <v>2.653385106012067</v>
       </c>
       <c r="I15">
-        <v>0.2451929856624275</v>
+        <v>0.2451929856624488</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.170075336599357</v>
+        <v>0.1700753365994032</v>
       </c>
       <c r="L15">
         <v>1.037360459539251</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.289870293472234</v>
+        <v>4.28987029347212</v>
       </c>
       <c r="C16">
-        <v>1.741163303574808</v>
+        <v>1.741163303574695</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.003780998411770931</v>
+        <v>0.003780998411831327</v>
       </c>
       <c r="F16">
-        <v>3.228265577030271</v>
+        <v>3.228265577030299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.489047127425664</v>
+        <v>2.489047127425678</v>
       </c>
       <c r="I16">
-        <v>0.2368158719302684</v>
+        <v>0.2368158719302969</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1582502703744098</v>
+        <v>0.158250270374463</v>
       </c>
       <c r="L16">
         <v>0.963589780302982</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.089420235986893</v>
+        <v>4.08942023598712</v>
       </c>
       <c r="C17">
-        <v>1.657837359319558</v>
+        <v>1.657837359318933</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.003636909581157699</v>
+        <v>0.003636909581113734</v>
       </c>
       <c r="F17">
-        <v>3.084024901190134</v>
+        <v>3.084024901190077</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.390762217134949</v>
+        <v>2.390762217134935</v>
       </c>
       <c r="I17">
-        <v>0.2319294302112809</v>
+        <v>0.2319294302112525</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1510878947164151</v>
+        <v>0.1510878947164045</v>
       </c>
       <c r="L17">
-        <v>0.9190184276817916</v>
+        <v>0.9190184276817845</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.975240774640497</v>
+        <v>3.97524077464044</v>
       </c>
       <c r="C18">
-        <v>1.610451187604383</v>
+        <v>1.610451187604099</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003556437959213898</v>
+        <v>0.003556437959270298</v>
       </c>
       <c r="F18">
-        <v>3.001954915014153</v>
+        <v>3.001954915014181</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.33508479359881</v>
+        <v>2.335084793598853</v>
       </c>
       <c r="I18">
-        <v>0.2292038246334975</v>
+        <v>0.2292038246335082</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1469992052940334</v>
+        <v>0.1469992052940405</v>
       </c>
       <c r="L18">
-        <v>0.8936109473392762</v>
+        <v>0.8936109473392904</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936762715967689</v>
+        <v>3.936762715967575</v>
       </c>
       <c r="C19">
-        <v>1.594494886605446</v>
+        <v>1.594494886605219</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.003529574527760371</v>
+        <v>0.003529574527745716</v>
       </c>
       <c r="F19">
-        <v>2.974313686661645</v>
+        <v>2.974313686661702</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.316373097158049</v>
+        <v>2.316373097158078</v>
       </c>
       <c r="I19">
-        <v>0.2282948700497691</v>
+        <v>0.2282948700497762</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.145619898363492</v>
+        <v>0.1456198983635026</v>
       </c>
       <c r="L19">
-        <v>0.8850456657240144</v>
+        <v>0.8850456657240073</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.11064071653368</v>
+        <v>4.110640716533737</v>
       </c>
       <c r="C20">
-        <v>1.666650373427785</v>
+        <v>1.66665037342807</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.003651991893301343</v>
+        <v>0.003651991893291573</v>
       </c>
       <c r="F20">
         <v>3.099285366667033</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.401134828466539</v>
+        <v>2.40113482846651</v>
       </c>
       <c r="I20">
-        <v>0.2324406391241318</v>
+        <v>0.2324406391241247</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1518470797418487</v>
+        <v>0.151847079741831</v>
       </c>
       <c r="L20">
-        <v>0.9237389540438699</v>
+        <v>0.9237389540438414</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.708968623931924</v>
+        <v>4.708968623932151</v>
       </c>
       <c r="C21">
-        <v>1.915942935916405</v>
+        <v>1.915942935916689</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.004094523160400154</v>
+        <v>0.004094523160406816</v>
       </c>
       <c r="F21">
-        <v>3.530414832170976</v>
+        <v>3.530414832171004</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.696663125808257</v>
+        <v>2.696663125808243</v>
       </c>
       <c r="I21">
-        <v>0.2474408203569638</v>
+        <v>0.2474408203569318</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1731592220943377</v>
+        <v>0.1731592220943305</v>
       </c>
       <c r="L21">
-        <v>1.056638035316269</v>
+        <v>1.056638035316304</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.112516605679559</v>
+        <v>5.112516605679616</v>
       </c>
       <c r="C22">
-        <v>2.084961673794908</v>
+        <v>2.084961673795533</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.004413383447066099</v>
+        <v>0.00441338344710962</v>
       </c>
       <c r="F22">
         <v>3.821938625939396</v>
@@ -1193,16 +1193,16 @@
         <v>2.899138740357984</v>
       </c>
       <c r="I22">
-        <v>0.258180388259337</v>
+        <v>0.2581803882593547</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1874273619491547</v>
+        <v>0.187427361949176</v>
       </c>
       <c r="L22">
-        <v>1.146046484577795</v>
+        <v>1.146046484577816</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.895852400016679</v>
+        <v>4.895852400016452</v>
       </c>
       <c r="C23">
-        <v>1.994127113823311</v>
+        <v>1.994127113823595</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.004240021180035303</v>
+        <v>0.004240021180025089</v>
       </c>
       <c r="F23">
-        <v>3.665358558648279</v>
+        <v>3.665358558648308</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>2.790127312218686</v>
       </c>
       <c r="I23">
-        <v>0.2523530941828298</v>
+        <v>0.2523530941828263</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1797777394524473</v>
+        <v>0.1797777394524758</v>
       </c>
       <c r="L23">
-        <v>1.098066606990052</v>
+        <v>1.098066606990045</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.101043656410923</v>
+        <v>4.101043656410752</v>
       </c>
       <c r="C24">
-        <v>1.662664406338934</v>
+        <v>1.662664406339445</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.003645165889202495</v>
+        <v>0.003645165889204716</v>
       </c>
       <c r="F24">
         <v>3.092383463122985</v>
@@ -1269,7 +1269,7 @@
         <v>2.396442810261874</v>
       </c>
       <c r="I24">
-        <v>0.2322092628045453</v>
+        <v>0.2322092628045525</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.1515037623614788</v>
       </c>
       <c r="L24">
-        <v>0.9216041329499234</v>
+        <v>0.9216041329499376</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.285305812940351</v>
+        <v>3.28530581294018</v>
       </c>
       <c r="C25">
-        <v>1.325311240907183</v>
+        <v>1.325311240907354</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.003093156523656493</v>
+        <v>0.003093156523649387</v>
       </c>
       <c r="F25">
         <v>2.507764091334622</v>
@@ -1307,16 +1307,16 @@
         <v>2.003738054184211</v>
       </c>
       <c r="I25">
-        <v>0.2136620276403889</v>
+        <v>0.213662027640396</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1221612557703473</v>
+        <v>0.1221612557703544</v>
       </c>
       <c r="L25">
-        <v>0.7398043408040138</v>
+        <v>0.7398043408040209</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709384625929943</v>
+        <v>2.68371099580645</v>
       </c>
       <c r="C2">
-        <v>1.088853576300039</v>
+        <v>1.073823596320665</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002733815574739396</v>
+        <v>0.001903957728726091</v>
       </c>
       <c r="F2">
-        <v>2.098168083696407</v>
+        <v>2.096917800884853</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007823807961613069</v>
       </c>
       <c r="H2">
-        <v>1.734620080553299</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2019954001269042</v>
+        <v>1.752135221731947</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2088363937944919</v>
       </c>
       <c r="K2">
-        <v>0.1012651221426211</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6110686608863318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1011431835223888</v>
+      </c>
+      <c r="M2">
+        <v>0.6074596926456337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.330029495961128</v>
+        <v>2.308517157169376</v>
       </c>
       <c r="C3">
-        <v>0.9338745161609552</v>
+        <v>0.9211353774468307</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002509439113572931</v>
+        <v>0.001710129339323796</v>
       </c>
       <c r="F3">
-        <v>1.83033783886296</v>
+        <v>1.830722051990392</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007923676529715877</v>
       </c>
       <c r="H3">
-        <v>1.561702267920126</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1950354008132038</v>
+        <v>1.581724258593923</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2022766193287175</v>
       </c>
       <c r="K3">
-        <v>0.08742723285246967</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5261144813088947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.08730249592164441</v>
+      </c>
+      <c r="M3">
+        <v>0.5231075980144979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.101264825058479</v>
+        <v>2.082302404951747</v>
       </c>
       <c r="C4">
-        <v>0.8407128119561378</v>
+        <v>0.8293756000612689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002378662503782714</v>
+        <v>0.00159624164310479</v>
       </c>
       <c r="F4">
-        <v>1.669777730893344</v>
+        <v>1.671148441483709</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007986348761665382</v>
       </c>
       <c r="H4">
-        <v>1.459347480288685</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.191147846583533</v>
+        <v>1.480891698462941</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.198631585878065</v>
       </c>
       <c r="K4">
-        <v>0.07905663096855164</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4748289198664608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.07892862184367644</v>
+      </c>
+      <c r="M4">
+        <v>0.4721887809934344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.008924370268346</v>
+        <v>1.991002365763336</v>
       </c>
       <c r="C5">
-        <v>0.8031711722124726</v>
+        <v>0.7924055598817858</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.002326836701034285</v>
+        <v>0.001550876033661108</v>
       </c>
       <c r="F5">
-        <v>1.605202825457226</v>
+        <v>1.606972598356805</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008012253834572681</v>
       </c>
       <c r="H5">
-        <v>1.418483800759049</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1896500362417868</v>
+        <v>1.440645916885202</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.197232094346802</v>
       </c>
       <c r="K5">
-        <v>0.07567272380701695</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4541166175148277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.07554301628794846</v>
+      </c>
+      <c r="M5">
+        <v>0.4516256043673366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.993640174972199</v>
+        <v>1.975891078722839</v>
       </c>
       <c r="C6">
-        <v>0.7969607603370719</v>
+        <v>0.7862901194640131</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002318312218530849</v>
+        <v>0.001543400029201614</v>
       </c>
       <c r="F6">
-        <v>1.5945284334326</v>
+        <v>1.596364328839016</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008016578134501341</v>
       </c>
       <c r="H6">
-        <v>1.411746447964603</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1894062544372979</v>
+        <v>1.434011068976531</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1970046155118581</v>
       </c>
       <c r="K6">
-        <v>0.07511234674604239</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4506877315711932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.07498233584565384</v>
+      </c>
+      <c r="M6">
+        <v>0.4482214719954953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.100016118055748</v>
+        <v>2.081067720904002</v>
       </c>
       <c r="C7">
-        <v>0.840204900657767</v>
+        <v>0.8288753945190308</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.002377957967455657</v>
+        <v>0.001595625882493401</v>
       </c>
       <c r="F7">
-        <v>1.668903545654658</v>
+        <v>1.6702796483942</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007986696614727415</v>
       </c>
       <c r="H7">
-        <v>1.458793091984845</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1911273100053208</v>
+        <v>1.480345650878334</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1986123769604085</v>
       </c>
       <c r="K7">
-        <v>0.07901088999358308</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.474548871310347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.07888285941007567</v>
+      </c>
+      <c r="M7">
+        <v>0.4719107444119146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.577615647471646</v>
+        <v>2.55337957171264</v>
       </c>
       <c r="C8">
-        <v>1.034952039354494</v>
+        <v>1.020713860428259</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.002654804771335062</v>
+        <v>0.001835898283519377</v>
       </c>
       <c r="F8">
-        <v>2.00493532937422</v>
+        <v>2.004253041137446</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000785797807787314</v>
       </c>
       <c r="H8">
-        <v>1.674134077192235</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.199508718336336</v>
+        <v>1.692518297246721</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2064885702384451</v>
       </c>
       <c r="K8">
-        <v>0.09646485355790091</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5815732949129924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.09634228952823065</v>
+      </c>
+      <c r="M8">
+        <v>0.578172802892837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.555588915565579</v>
+        <v>3.520803754481904</v>
       </c>
       <c r="C9">
-        <v>1.436771731276508</v>
+        <v>1.416713721885685</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.003270134898098576</v>
+        <v>0.002362128641764549</v>
       </c>
       <c r="F9">
-        <v>2.700976448541525</v>
+        <v>2.69604972241433</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007614994321393248</v>
       </c>
       <c r="H9">
-        <v>2.132462435286186</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2195564565941019</v>
+        <v>2.1444003277728</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2255041234518664</v>
       </c>
       <c r="K9">
-        <v>0.1319179119416631</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8001143826478554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1317923073181184</v>
+      </c>
+      <c r="M9">
+        <v>0.7951733085218464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.31290206638937</v>
+        <v>4.27001844477951</v>
       </c>
       <c r="C10">
-        <v>1.750748613509643</v>
+        <v>1.726209300595428</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.003797790035400261</v>
+        <v>0.002809339318523563</v>
       </c>
       <c r="F10">
-        <v>3.244851166400878</v>
+        <v>3.236556109155288</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007440144630892168</v>
       </c>
       <c r="H10">
-        <v>2.500383178554117</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2373855149138819</v>
+        <v>2.507275904386788</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2425225667422666</v>
       </c>
       <c r="K10">
-        <v>0.1590719393925006</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9687082911381495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1589331905383169</v>
+      </c>
+      <c r="M10">
+        <v>0.9625692941235684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.669512848802128</v>
+        <v>4.622799514950998</v>
       </c>
       <c r="C11">
-        <v>1.899455827121017</v>
+        <v>1.872793790203673</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.004064266852636056</v>
+        <v>0.003034675807844334</v>
       </c>
       <c r="F11">
-        <v>3.501940000251722</v>
+        <v>3.492022391883836</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007360841514276903</v>
       </c>
       <c r="H11">
-        <v>2.676998819129636</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2464173478200955</v>
+        <v>2.681480829914676</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2511664457305471</v>
       </c>
       <c r="K11">
-        <v>0.1717595190394086</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.047886372587612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1716116576167011</v>
+      </c>
+      <c r="M11">
+        <v>1.041176790149187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.806661567286255</v>
+        <v>4.758469490377365</v>
       </c>
       <c r="C12">
-        <v>1.956794440738918</v>
+        <v>1.929312213281491</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.00417012638998937</v>
+        <v>0.003124162857867763</v>
       </c>
       <c r="F12">
-        <v>3.600941999773283</v>
+        <v>3.590393111603817</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007330790005900044</v>
       </c>
       <c r="H12">
-        <v>2.74545510674497</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2499954381683693</v>
+        <v>2.749002405113401</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2545940245925777</v>
       </c>
       <c r="K12">
-        <v>0.1766213568444464</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.078299670284473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1764695095971938</v>
+      </c>
+      <c r="M12">
+        <v>1.071369108546889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.777023847919793</v>
+        <v>4.729151653019017</v>
       </c>
       <c r="C13">
-        <v>1.944396659466463</v>
+        <v>1.917091881168119</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.004147085696925235</v>
+        <v>0.003104686153691194</v>
       </c>
       <c r="F13">
-        <v>3.579542332976018</v>
+        <v>3.56913022335462</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007337264057132609</v>
       </c>
       <c r="H13">
-        <v>2.730637370744802</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2492173508043116</v>
+        <v>2.734387042739627</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2538485282561176</v>
       </c>
       <c r="K13">
-        <v>0.1755715631701698</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.071729190288416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1754205997176399</v>
+      </c>
+      <c r="M13">
+        <v>1.064846461488365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.68075157848898</v>
+        <v>4.633917208813841</v>
       </c>
       <c r="C14">
-        <v>1.90415138505648</v>
+        <v>1.877422226481542</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.004072869038278526</v>
+        <v>0.003041947842782111</v>
       </c>
       <c r="F14">
-        <v>3.510050312648104</v>
+        <v>3.500081131739734</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007358369932290998</v>
       </c>
       <c r="H14">
-        <v>2.682597620529378</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.246708391238311</v>
+        <v>2.687003203482959</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2514451841738996</v>
       </c>
       <c r="K14">
-        <v>0.1721582992127679</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.050379407320008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1720101211584328</v>
+      </c>
+      <c r="M14">
+        <v>1.043651751265223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.62206853274273</v>
+        <v>4.575865892492573</v>
       </c>
       <c r="C15">
-        <v>1.879639588444547</v>
+        <v>1.853260739352436</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.004028093415741729</v>
+        <v>0.00300409498336851</v>
       </c>
       <c r="F15">
-        <v>3.467707360276762</v>
+        <v>3.458007160665687</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007371293341203216</v>
       </c>
       <c r="H15">
-        <v>2.653385106012067</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2451929856624488</v>
+        <v>2.658189436204125</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2499939738308825</v>
       </c>
       <c r="K15">
-        <v>0.1700753365994032</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.037360459539251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1699287921265409</v>
+      </c>
+      <c r="M15">
+        <v>1.030727109170257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.28987029347212</v>
+        <v>4.247233413626645</v>
       </c>
       <c r="C16">
-        <v>1.741163303574695</v>
+        <v>1.716760680084462</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.003780998411831327</v>
+        <v>0.002795133607481848</v>
       </c>
       <c r="F16">
-        <v>3.228265577030299</v>
+        <v>3.220074429353332</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007445327529123821</v>
       </c>
       <c r="H16">
-        <v>2.489047127425678</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2368158719302969</v>
+        <v>2.496094654003372</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2419778234550876</v>
       </c>
       <c r="K16">
-        <v>0.158250270374463</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.963589780302982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1581120472371822</v>
+      </c>
+      <c r="M16">
+        <v>0.9574874581820936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.08942023598712</v>
+        <v>4.048928666440702</v>
       </c>
       <c r="C17">
-        <v>1.657837359318933</v>
+        <v>1.634622796153451</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.003636909581113734</v>
+        <v>0.002673184453395816</v>
       </c>
       <c r="F17">
-        <v>3.084024901190077</v>
+        <v>3.076733894979355</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007490769265404133</v>
       </c>
       <c r="H17">
-        <v>2.390762217134935</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2319294302112525</v>
+        <v>2.399152906729441</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2373073619329453</v>
       </c>
       <c r="K17">
-        <v>0.1510878947164045</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9190184276817845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1509539200424115</v>
+      </c>
+      <c r="M17">
+        <v>0.9132345215820479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.97524077464044</v>
+        <v>3.935969960793614</v>
       </c>
       <c r="C18">
-        <v>1.610451187604099</v>
+        <v>1.587912349093699</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.003556437959270298</v>
+        <v>0.002605029144556958</v>
       </c>
       <c r="F18">
-        <v>3.001954915014181</v>
+        <v>2.995173425629304</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007516932235385188</v>
       </c>
       <c r="H18">
-        <v>2.335084793598853</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2292038246335082</v>
+        <v>2.344237521015103</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2347042351386364</v>
       </c>
       <c r="K18">
-        <v>0.1469992052940405</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8936109473392904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.146867385431392</v>
+      </c>
+      <c r="M18">
+        <v>0.8880078597526833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.936762715967575</v>
+        <v>3.897903170096583</v>
       </c>
       <c r="C19">
-        <v>1.594494886605219</v>
+        <v>1.572183643167989</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.003529574527745716</v>
+        <v>0.002582267795368409</v>
       </c>
       <c r="F19">
-        <v>2.974313686661702</v>
+        <v>2.967703403168258</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007525796585140935</v>
       </c>
       <c r="H19">
-        <v>2.316373097158078</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2282948700497762</v>
+        <v>2.325782171726814</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2338364723153319</v>
       </c>
       <c r="K19">
-        <v>0.1456198983635026</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8850456657240073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1454887607338371</v>
+      </c>
+      <c r="M19">
+        <v>0.8795034334899157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.110640716533737</v>
+        <v>4.069922187396173</v>
       </c>
       <c r="C20">
-        <v>1.66665037342807</v>
+        <v>1.643310155239647</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.003651991893291573</v>
+        <v>0.002685954116268707</v>
       </c>
       <c r="F20">
-        <v>3.099285366667033</v>
+        <v>3.091899414961375</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007485929586613744</v>
       </c>
       <c r="H20">
-        <v>2.40113482846651</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2324406391241247</v>
+        <v>2.409383658208</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2377957657222609</v>
       </c>
       <c r="K20">
-        <v>0.151847079741831</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9237389540438414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1517126832479718</v>
+      </c>
+      <c r="M20">
+        <v>0.9179214007086287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.708968623932151</v>
+        <v>4.661830262994442</v>
       </c>
       <c r="C21">
-        <v>1.915942935916689</v>
+        <v>1.88904518689526</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.004094523160406816</v>
+        <v>0.00306025331298132</v>
       </c>
       <c r="F21">
-        <v>3.530414832171004</v>
+        <v>3.520316045194107</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007352171685839743</v>
       </c>
       <c r="H21">
-        <v>2.696663125808243</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2474408203569318</v>
+        <v>2.700876691617495</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2521466968854718</v>
       </c>
       <c r="K21">
-        <v>0.1731592220943305</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.056638035316304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.173010241203496</v>
+      </c>
+      <c r="M21">
+        <v>1.049864975137709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.112516605679616</v>
+        <v>5.06101138726774</v>
       </c>
       <c r="C22">
-        <v>2.084961673795533</v>
+        <v>2.05564074058924</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.00441338344710962</v>
+        <v>0.003329803741391135</v>
       </c>
       <c r="F22">
-        <v>3.821938625939396</v>
+        <v>3.809966093578851</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007264597180358503</v>
       </c>
       <c r="H22">
-        <v>2.899138740357984</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2581803882593547</v>
+        <v>2.900584450642754</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2624404063493913</v>
       </c>
       <c r="K22">
-        <v>0.187427361949176</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.146046484577816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1872656744605159</v>
+      </c>
+      <c r="M22">
+        <v>1.1386195223727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.895852400016452</v>
+        <v>4.846696513066718</v>
       </c>
       <c r="C23">
-        <v>1.994127113823595</v>
+        <v>1.96611014574512</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.004240021180025089</v>
+        <v>0.003183246022513408</v>
       </c>
       <c r="F23">
-        <v>3.665358558648308</v>
+        <v>3.654396828963883</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007311372397917626</v>
       </c>
       <c r="H23">
-        <v>2.790127312218686</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2523530941828263</v>
+        <v>2.793064277163523</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2568533774164123</v>
       </c>
       <c r="K23">
-        <v>0.1797777394524758</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.098066606990045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1796231580497292</v>
+      </c>
+      <c r="M23">
+        <v>1.090991822495518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.101043656410752</v>
+        <v>4.060427774444065</v>
       </c>
       <c r="C24">
-        <v>1.662664406339445</v>
+        <v>1.639381019241</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.003645165889204716</v>
+        <v>0.002680174934426738</v>
       </c>
       <c r="F24">
-        <v>3.092383463122985</v>
+        <v>3.085040460872705</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000748811748386078</v>
       </c>
       <c r="H24">
-        <v>2.396442810261874</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2322092628045525</v>
+        <v>2.404755806128207</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2375747048058372</v>
       </c>
       <c r="K24">
-        <v>0.1515037623614788</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9216041329499376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1513695574624414</v>
+      </c>
+      <c r="M24">
+        <v>0.9158017984288023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.28530581294018</v>
+        <v>3.253415543375581</v>
       </c>
       <c r="C25">
-        <v>1.325311240907354</v>
+        <v>1.306852417094433</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.003093156523649387</v>
+        <v>0.002211515739100278</v>
       </c>
       <c r="F25">
-        <v>2.507764091334622</v>
+        <v>2.504019163595302</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007679915798728263</v>
       </c>
       <c r="H25">
-        <v>2.003738054184211</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.213662027640396</v>
+        <v>2.017460167809801</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2198958494947938</v>
       </c>
       <c r="K25">
-        <v>0.1221612557703544</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7398043408040209</v>
+        <v>0.1220381741129195</v>
+      </c>
+      <c r="M25">
+        <v>0.7352884114120428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.68371099580645</v>
+        <v>2.981863549762693</v>
       </c>
       <c r="C2">
-        <v>1.073823596320665</v>
+        <v>0.3175263439989067</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001903957728726091</v>
+        <v>0.03191737429465924</v>
       </c>
       <c r="F2">
-        <v>2.096917800884853</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007823807961613069</v>
+        <v>0.0008102845700865194</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.752135221731947</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2088363937944919</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6734632742365108</v>
       </c>
       <c r="L2">
-        <v>0.1011431835223888</v>
+        <v>0.3124612843973296</v>
       </c>
       <c r="M2">
-        <v>0.6074596926456337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.011064728333452</v>
+      </c>
+      <c r="O2">
+        <v>1.234142661821039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.308517157169376</v>
+        <v>2.599277675398355</v>
       </c>
       <c r="C3">
-        <v>0.9211353774468307</v>
+        <v>0.2757442853688019</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001710129339323796</v>
+        <v>0.03054522859686415</v>
       </c>
       <c r="F3">
-        <v>1.830722051990392</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007923676529715877</v>
+        <v>0.000817964655082342</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.581724258593923</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2022766193287175</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5835218329217895</v>
       </c>
       <c r="L3">
-        <v>0.08730249592164441</v>
+        <v>0.2748902480395827</v>
       </c>
       <c r="M3">
-        <v>0.5231075980144979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.066191865146166</v>
+      </c>
+      <c r="O3">
+        <v>1.152294035108469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.082302404951747</v>
+        <v>2.368372505910997</v>
       </c>
       <c r="C4">
-        <v>0.8293756000612689</v>
+        <v>0.2503678572239636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.00159624164310479</v>
+        <v>0.02974916194398247</v>
       </c>
       <c r="F4">
-        <v>1.671148441483709</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007986348761665382</v>
+        <v>0.0008228067409602059</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.480891698462941</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.198631585878065</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5291584274186718</v>
       </c>
       <c r="L4">
-        <v>0.07892862184367644</v>
+        <v>0.252292857714238</v>
       </c>
       <c r="M4">
-        <v>0.4721887809934344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.101849193332207</v>
+      </c>
+      <c r="O4">
+        <v>1.105056730276942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.991002365763336</v>
+        <v>2.275161446922084</v>
       </c>
       <c r="C5">
-        <v>0.7924055598817858</v>
+        <v>0.240083339076179</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.001550876033661108</v>
+        <v>0.02943574970491269</v>
       </c>
       <c r="F5">
-        <v>1.606972598356805</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008012253834572681</v>
+        <v>0.0008248131073544856</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.440645916885202</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.197232094346802</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5071928421506797</v>
       </c>
       <c r="L5">
-        <v>0.07554301628794846</v>
+        <v>0.243189776579797</v>
       </c>
       <c r="M5">
-        <v>0.4516256043673366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.116815058459146</v>
+      </c>
+      <c r="O5">
+        <v>1.086502203718801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.975891078722839</v>
+        <v>2.259733864013697</v>
       </c>
       <c r="C6">
-        <v>0.7862901194640131</v>
+        <v>0.2383786521190672</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001543400029201614</v>
+        <v>0.02938435260393746</v>
       </c>
       <c r="F6">
-        <v>1.596364328839016</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008016578134501341</v>
+        <v>0.0008251483050334449</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.434011068976531</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1970046155118581</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5035560328684738</v>
       </c>
       <c r="L6">
-        <v>0.07498233584565384</v>
+        <v>0.2416842303765065</v>
       </c>
       <c r="M6">
-        <v>0.4482214719954953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.119325869326786</v>
+      </c>
+      <c r="O6">
+        <v>1.083461446464618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.081067720904002</v>
+        <v>2.367112001454018</v>
       </c>
       <c r="C7">
-        <v>0.8288753945190308</v>
+        <v>0.2502289442961825</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.001595625882493401</v>
+        <v>0.02974489152251181</v>
       </c>
       <c r="F7">
-        <v>1.6702796483942</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007986696614727415</v>
+        <v>0.000822833663488368</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.480345650878334</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1986123769604085</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5288614669731757</v>
       </c>
       <c r="L7">
-        <v>0.07888285941007567</v>
+        <v>0.2521696794965891</v>
       </c>
       <c r="M7">
-        <v>0.4719107444119146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.102049290906038</v>
+      </c>
+      <c r="O7">
+        <v>1.104803763922462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.55337957171264</v>
+        <v>2.849040132452785</v>
       </c>
       <c r="C8">
-        <v>1.020713860428259</v>
+        <v>0.3030538311240321</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.001835898283519377</v>
+        <v>0.03143419152505977</v>
       </c>
       <c r="F8">
-        <v>2.004253041137446</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000785797807787314</v>
+        <v>0.0008129072707044744</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.692518297246721</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2064885702384451</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6422548155071297</v>
       </c>
       <c r="L8">
-        <v>0.09634228952823065</v>
+        <v>0.2994008024074759</v>
       </c>
       <c r="M8">
-        <v>0.578172802892837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.029684749980326</v>
+      </c>
+      <c r="O8">
+        <v>1.205254771075658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.520803754481904</v>
+        <v>3.831971629161842</v>
       </c>
       <c r="C9">
-        <v>1.416713721885685</v>
+        <v>0.4095163613595503</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.002362128641764549</v>
+        <v>0.03514926621153691</v>
       </c>
       <c r="F9">
-        <v>2.69604972241433</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>0.0007614994321393248</v>
+        <v>0.0007943773192665704</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.1444003277728</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2255041234518664</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8728779694810243</v>
       </c>
       <c r="L9">
-        <v>0.1317923073181184</v>
+        <v>0.3964082005160208</v>
       </c>
       <c r="M9">
-        <v>0.7951733085218464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.9031058310784275</v>
+      </c>
+      <c r="O9">
+        <v>1.429362234599438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.27001844477951</v>
+        <v>4.586723747020983</v>
       </c>
       <c r="C10">
-        <v>1.726209300595428</v>
+        <v>0.4905333631604094</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.002809339318523563</v>
+        <v>0.03817630347892731</v>
       </c>
       <c r="F10">
-        <v>3.236556109155288</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007440144630892168</v>
+        <v>0.0007812288884526387</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.507275904386788</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2425225667422666</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.049578167519428</v>
       </c>
       <c r="L10">
-        <v>0.1589331905383169</v>
+        <v>0.4713595930343075</v>
       </c>
       <c r="M10">
-        <v>0.9625692941235684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.8209599911680314</v>
+      </c>
+      <c r="O10">
+        <v>1.615484217438663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.622799514950998</v>
+        <v>4.939586739874869</v>
       </c>
       <c r="C11">
-        <v>1.872793790203673</v>
+        <v>0.5282683006858235</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.003034675807844334</v>
+        <v>0.03963118868393778</v>
       </c>
       <c r="F11">
-        <v>3.492022391883836</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007360841514276903</v>
+        <v>0.0007753218674659922</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.681480829914676</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2511664457305471</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.132110491917004</v>
       </c>
       <c r="L11">
-        <v>0.1716116576167011</v>
+        <v>0.5065122293845548</v>
       </c>
       <c r="M11">
-        <v>1.041176790149187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7863337935676</v>
+      </c>
+      <c r="O11">
+        <v>1.706081672187196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.758469490377365</v>
+        <v>5.074807495576692</v>
       </c>
       <c r="C12">
-        <v>1.929312213281491</v>
+        <v>0.5427100668453306</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.003124162857867763</v>
+        <v>0.04019455762049517</v>
       </c>
       <c r="F12">
-        <v>3.590393111603817</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007330790005900044</v>
+        <v>0.0007730932040481979</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.749002405113401</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2545940245925777</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.16372696296105</v>
       </c>
       <c r="L12">
-        <v>0.1764695095971938</v>
+        <v>0.5199999443752148</v>
       </c>
       <c r="M12">
-        <v>1.071369108546889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.7736537275589228</v>
+      </c>
+      <c r="O12">
+        <v>1.741362358865615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.729151653019017</v>
+        <v>5.045610187649174</v>
       </c>
       <c r="C13">
-        <v>1.917091881168119</v>
+        <v>0.5395925489357012</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.003104686153691194</v>
+        <v>0.04007265170298346</v>
       </c>
       <c r="F13">
-        <v>3.56913022335462</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>0.0007337264057132609</v>
+        <v>0.0007735728647919009</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.734387042739627</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2538485282561176</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.156900698865869</v>
       </c>
       <c r="L13">
-        <v>0.1754205997176399</v>
+        <v>0.5170868704995115</v>
       </c>
       <c r="M13">
-        <v>1.064846461488365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.776364733455388</v>
+      </c>
+      <c r="O13">
+        <v>1.733718650734446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.633917208813841</v>
+        <v>4.950677961874533</v>
       </c>
       <c r="C14">
-        <v>1.877422226481542</v>
+        <v>0.529453219518814</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.003041947842782111</v>
+        <v>0.03967728055403263</v>
       </c>
       <c r="F14">
-        <v>3.500081131739734</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007358369932290998</v>
+        <v>0.0007751383649498023</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.687003203482959</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2514451841738996</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.134703983376909</v>
       </c>
       <c r="L14">
-        <v>0.1720101211584328</v>
+        <v>0.507618191671753</v>
       </c>
       <c r="M14">
-        <v>1.043651751265223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7852817026077048</v>
+      </c>
+      <c r="O14">
+        <v>1.708963980492854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.575865892492573</v>
+        <v>4.892744812558021</v>
       </c>
       <c r="C15">
-        <v>1.853260739352436</v>
+        <v>0.5232632554553049</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.00300409498336851</v>
+        <v>0.03943676296892917</v>
       </c>
       <c r="F15">
-        <v>3.458007160665687</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007371293341203216</v>
+        <v>0.0007760982677600421</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.658189436204125</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2499939738308825</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.12115688382012</v>
       </c>
       <c r="L15">
-        <v>0.1699287921265409</v>
+        <v>0.5018420649082884</v>
       </c>
       <c r="M15">
-        <v>1.030727109170257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7908010834802184</v>
+      </c>
+      <c r="O15">
+        <v>1.693931640919303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.247233413626645</v>
+        <v>4.56387394245445</v>
       </c>
       <c r="C16">
-        <v>1.716760680084462</v>
+        <v>0.4880871338718293</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.002795133607481848</v>
+        <v>0.03808289286664568</v>
       </c>
       <c r="F16">
-        <v>3.220074429353332</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007445327529123821</v>
+        <v>0.000781616215269665</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.496094654003372</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2419778234550876</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.044232225307084</v>
       </c>
       <c r="L16">
-        <v>0.1581120472371822</v>
+        <v>0.4690855543002925</v>
       </c>
       <c r="M16">
-        <v>0.9574874581820936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.8232811983056791</v>
+      </c>
+      <c r="O16">
+        <v>1.609692757133018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.048928666440702</v>
+        <v>4.364716030367958</v>
       </c>
       <c r="C17">
-        <v>1.634622796153451</v>
+        <v>0.4667504252428785</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.002673184453395816</v>
+        <v>0.03727311895655028</v>
       </c>
       <c r="F17">
-        <v>3.076733894979355</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007490769265404133</v>
+        <v>0.00078501864412221</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.399152906729441</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2373073619329453</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9976285963019507</v>
       </c>
       <c r="L17">
-        <v>0.1509539200424115</v>
+        <v>0.4492774950834502</v>
       </c>
       <c r="M17">
-        <v>0.9132345215820479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.8439344791791328</v>
+      </c>
+      <c r="O17">
+        <v>1.559614886144985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.935969960793614</v>
+        <v>4.251046628281699</v>
       </c>
       <c r="C18">
-        <v>1.587912349093699</v>
+        <v>0.454559201454515</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.002605029144556958</v>
+        <v>0.03681460600809316</v>
       </c>
       <c r="F18">
-        <v>2.995173425629304</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007516932235385188</v>
+        <v>0.0007869827864417074</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.344237521015103</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2347042351386364</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9710222299181908</v>
       </c>
       <c r="L18">
-        <v>0.146867385431392</v>
+        <v>0.4379822893100709</v>
       </c>
       <c r="M18">
-        <v>0.8880078597526833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.856069297100241</v>
+      </c>
+      <c r="O18">
+        <v>1.531361481332652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.897903170096583</v>
+        <v>4.212704879707474</v>
       </c>
       <c r="C19">
-        <v>1.572183643167989</v>
+        <v>0.4504446562492603</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.002582267795368409</v>
+        <v>0.03666057073808027</v>
       </c>
       <c r="F19">
-        <v>2.967703403168258</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007525796585140935</v>
+        <v>0.0007876491112155805</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.325782171726814</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2338364723153319</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9620463790122784</v>
       </c>
       <c r="L19">
-        <v>0.1454887607338371</v>
+        <v>0.4341740451793328</v>
       </c>
       <c r="M19">
-        <v>0.8795034334899157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.8602207628371019</v>
+      </c>
+      <c r="O19">
+        <v>1.521886401458673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.069922187396173</v>
+        <v>4.38582397905958</v>
       </c>
       <c r="C20">
-        <v>1.643310155239647</v>
+        <v>0.4690131857228437</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.002685954116268707</v>
+        <v>0.03735856215707578</v>
       </c>
       <c r="F20">
-        <v>3.091899414961375</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007485929586613744</v>
+        <v>0.0007846557262801981</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.409383658208</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2377957657222609</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.002568686321609</v>
       </c>
       <c r="L20">
-        <v>0.1517126832479718</v>
+        <v>0.4513758021014098</v>
       </c>
       <c r="M20">
-        <v>0.9179214007086287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.8417091904350755</v>
+      </c>
+      <c r="O20">
+        <v>1.564888005142436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.661830262994442</v>
+        <v>4.978516479056225</v>
       </c>
       <c r="C21">
-        <v>1.88904518689526</v>
+        <v>0.5324270280787289</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.00306025331298132</v>
+        <v>0.03979306256509929</v>
       </c>
       <c r="F21">
-        <v>3.520316045194107</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007352171685839743</v>
+        <v>0.0007746783384752458</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.700876691617495</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2521466968854718</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.141213372704371</v>
       </c>
       <c r="L21">
-        <v>0.173010241203496</v>
+        <v>0.5103943830193742</v>
       </c>
       <c r="M21">
-        <v>1.049864975137709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7826505194176718</v>
+      </c>
+      <c r="O21">
+        <v>1.716207570399192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.06101138726774</v>
+        <v>5.375325208576555</v>
       </c>
       <c r="C22">
-        <v>2.05564074058924</v>
+        <v>0.5747743357640047</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.003329803741391135</v>
+        <v>0.04145731559383137</v>
       </c>
       <c r="F22">
-        <v>3.809966093578851</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007264597180358503</v>
+        <v>0.0007682039377242132</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.900584450642754</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2624404063493913</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.23397338408607</v>
       </c>
       <c r="L22">
-        <v>0.1872656744605159</v>
+        <v>0.5500068076383684</v>
       </c>
       <c r="M22">
-        <v>1.1386195223727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.7465922354150933</v>
+      </c>
+      <c r="O22">
+        <v>1.820845017672511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.846696513066718</v>
+        <v>5.162592461460122</v>
       </c>
       <c r="C23">
-        <v>1.96611014574512</v>
+        <v>0.5520807132719767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.003183246022513408</v>
+        <v>0.04056192990116259</v>
       </c>
       <c r="F23">
-        <v>3.654396828963883</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007311372397917626</v>
+        <v>0.0007716561037678934</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.793064277163523</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2568533774164123</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.184249392609644</v>
       </c>
       <c r="L23">
-        <v>0.1796231580497292</v>
+        <v>0.5287609121745191</v>
       </c>
       <c r="M23">
-        <v>1.090991822495518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.7655910085996638</v>
+      </c>
+      <c r="O23">
+        <v>1.764428652847727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.060427774444065</v>
+        <v>4.376278509887641</v>
       </c>
       <c r="C24">
-        <v>1.639381019241</v>
+        <v>0.4679899583448446</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.002680174934426738</v>
+        <v>0.03731991145952129</v>
       </c>
       <c r="F24">
-        <v>3.085040460872705</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.000748811748386078</v>
+        <v>0.0007848197761363723</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.404755806128207</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2375747048058372</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.000334694149302</v>
       </c>
       <c r="L24">
-        <v>0.1513695574624414</v>
+        <v>0.4504268705133967</v>
       </c>
       <c r="M24">
-        <v>0.9158017984288023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.8427144334032519</v>
+      </c>
+      <c r="O24">
+        <v>1.562502364242079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.253415543375581</v>
+        <v>3.561088862055556</v>
       </c>
       <c r="C25">
-        <v>1.306852417094433</v>
+        <v>0.380306928289599</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.002211515739100278</v>
+        <v>0.03409608253607743</v>
       </c>
       <c r="F25">
-        <v>2.504019163595302</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007679915798728263</v>
+        <v>0.0007993001800053074</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.017460167809801</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2198958494947938</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8093889047833471</v>
       </c>
       <c r="L25">
-        <v>0.1220381741129195</v>
+        <v>0.3695980739391729</v>
       </c>
       <c r="M25">
-        <v>0.7352884114120428</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9355625435908408</v>
+      </c>
+      <c r="O25">
+        <v>1.36535458913437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.981863549762693</v>
+        <v>1.051812780288913</v>
       </c>
       <c r="C2">
-        <v>0.3175263439989067</v>
+        <v>0.2259787598975436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03191737429465924</v>
+        <v>1.387483588329005</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008102845700865194</v>
+        <v>0.4746342735037388</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3484483468068618</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2896208584313449</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6734632742365108</v>
+        <v>1.231226101406975</v>
       </c>
       <c r="L2">
-        <v>0.3124612843973296</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.011064728333452</v>
+        <v>0.6327526638614969</v>
       </c>
       <c r="O2">
-        <v>1.234142661821039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.599277675398355</v>
+        <v>0.9112623434495788</v>
       </c>
       <c r="C3">
-        <v>0.2757442853688019</v>
+        <v>0.1955086492032763</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03054522859686415</v>
+        <v>1.191160113196943</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.000817964655082342</v>
+        <v>0.4451583921522513</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3426928704689089</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2871458153929325</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5835218329217895</v>
+        <v>1.06615600956772</v>
       </c>
       <c r="L3">
-        <v>0.2748902480395827</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.066191865146166</v>
+        <v>0.67739095884889</v>
       </c>
       <c r="O3">
-        <v>1.152294035108469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.368372505910997</v>
+        <v>0.8254938840467503</v>
       </c>
       <c r="C4">
-        <v>0.2503678572239636</v>
+        <v>0.1769946282810366</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02974916194398247</v>
+        <v>1.072879700661218</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008228067409602059</v>
+        <v>0.4285732647189775</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3400216280938508</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2864940171674597</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5291584274186718</v>
+        <v>0.965520027175728</v>
       </c>
       <c r="L4">
-        <v>0.252292857714238</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.101849193332207</v>
+        <v>0.7060099770391304</v>
       </c>
       <c r="O4">
-        <v>1.105056730276942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.275161446922084</v>
+        <v>0.7906512639030723</v>
       </c>
       <c r="C5">
-        <v>0.240083339076179</v>
+        <v>0.169490281367473</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02943574970491269</v>
+        <v>1.025161808488292</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008248131073544856</v>
+        <v>0.4221658106156099</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3391369727213345</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2864333545532496</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5071928421506797</v>
+        <v>0.9246576481567104</v>
       </c>
       <c r="L5">
-        <v>0.243189776579797</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.116815058459146</v>
+        <v>0.7179667606241522</v>
       </c>
       <c r="O5">
-        <v>1.086502203718801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.259733864013697</v>
+        <v>0.7848715552467809</v>
       </c>
       <c r="C6">
-        <v>0.2383786521190672</v>
+        <v>0.1682463806101993</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02938435260393746</v>
+        <v>1.017265025204352</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008251483050334449</v>
+        <v>0.4211222439359972</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3390020276178234</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2864352884948467</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5035560328684738</v>
+        <v>0.9178804805301297</v>
       </c>
       <c r="L6">
-        <v>0.2416842303765065</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.119325869326786</v>
+        <v>0.7199696653170449</v>
       </c>
       <c r="O6">
-        <v>1.083461446464618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.367112001454018</v>
+        <v>0.825023575262577</v>
       </c>
       <c r="C7">
-        <v>0.2502289442961825</v>
+        <v>0.1768932700096286</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02974489152251181</v>
+        <v>1.072234316765602</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000822833663488368</v>
+        <v>0.4284854672325622</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.340008888300062</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.286492386121747</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5288614669731757</v>
+        <v>0.9649683869179739</v>
       </c>
       <c r="L7">
-        <v>0.2521696794965891</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.102049290906038</v>
+        <v>0.706170051758833</v>
       </c>
       <c r="O7">
-        <v>1.104803763922462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.849040132452785</v>
+        <v>1.003225582233824</v>
       </c>
       <c r="C8">
-        <v>0.3030538311240321</v>
+        <v>0.2154267811538233</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03143419152505977</v>
+        <v>1.319266941034883</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008129072707044744</v>
+        <v>0.4641385843531225</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3462766888544877</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2885790488027595</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6422548155071297</v>
+        <v>1.174140367685823</v>
       </c>
       <c r="L8">
-        <v>0.2994008024074759</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.029684749980326</v>
+        <v>0.6478862758378061</v>
       </c>
       <c r="O8">
-        <v>1.205254771075658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.831971629161842</v>
+        <v>1.358106508400056</v>
       </c>
       <c r="C9">
-        <v>0.4095163613595503</v>
+        <v>0.2929700701388072</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03514926621153691</v>
+        <v>1.826010666414746</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007943773192665704</v>
+        <v>0.547502277298463</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3660508911745524</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3002066139895945</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8728779694810243</v>
+        <v>1.591655748479582</v>
       </c>
       <c r="L9">
-        <v>0.3964082005160208</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9031058310784275</v>
+        <v>0.5436934559852453</v>
       </c>
       <c r="O9">
-        <v>1.429362234599438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.586723747020983</v>
+        <v>1.624033816331803</v>
       </c>
       <c r="C10">
-        <v>0.4905333631604094</v>
+        <v>0.3518222267884994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03817630347892731</v>
+        <v>2.218770800786146</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007812288884526387</v>
+        <v>0.619152266762967</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3861162819417387</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3143320301267636</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.049578167519428</v>
+        <v>1.90540271352387</v>
       </c>
       <c r="L10">
-        <v>0.4713595930343075</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8209599911680314</v>
+        <v>0.4740449437175664</v>
       </c>
       <c r="O10">
-        <v>1.615484217438663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.939586739874869</v>
+        <v>1.746612872549235</v>
       </c>
       <c r="C11">
-        <v>0.5282683006858235</v>
+        <v>0.3791758552560793</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03963118868393778</v>
+        <v>2.403670301848209</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007753218674659922</v>
+        <v>0.6545591198745484</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3966913461508454</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3222171186060052</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.132110491917004</v>
+        <v>2.050291227307184</v>
       </c>
       <c r="L11">
-        <v>0.5065122293845548</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7863337935676</v>
+        <v>0.4440437593444422</v>
       </c>
       <c r="O11">
-        <v>1.706081672187196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.074807495576692</v>
+        <v>1.793305539287985</v>
       </c>
       <c r="C12">
-        <v>0.5427100668453306</v>
+        <v>0.3896338780901658</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04019455762049517</v>
+        <v>2.474755620685926</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007730932040481979</v>
+        <v>0.6684232885886416</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4009269794507162</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3254360513360481</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.16372696296105</v>
+        <v>2.105527438853528</v>
       </c>
       <c r="L12">
-        <v>0.5199999443752148</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7736537275589228</v>
+        <v>0.4329425100505144</v>
       </c>
       <c r="O12">
-        <v>1.741362358865615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.045610187649174</v>
+        <v>1.783236478212814</v>
       </c>
       <c r="C13">
-        <v>0.5395925489357012</v>
+        <v>0.3873768380228739</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04007265170298346</v>
+        <v>2.459395634757783</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007735728647919009</v>
+        <v>0.6654162061743278</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4000040888071936</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3247320366945559</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.156900698865869</v>
+        <v>2.093613860698838</v>
       </c>
       <c r="L13">
-        <v>0.5170868704995115</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.776364733455388</v>
+        <v>0.4353215184458783</v>
       </c>
       <c r="O13">
-        <v>1.733718650734446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.950677961874533</v>
+        <v>1.750448535585519</v>
       </c>
       <c r="C14">
-        <v>0.529453219518814</v>
+        <v>0.3800341431717982</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03967728055403263</v>
+        <v>2.409496061398613</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007751383649498023</v>
+        <v>0.6556902692585425</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.397035042132913</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.322477130294935</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.134703983376909</v>
+        <v>2.054827764667635</v>
       </c>
       <c r="L14">
-        <v>0.507618191671753</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7852817026077048</v>
+        <v>0.443125143506796</v>
       </c>
       <c r="O14">
-        <v>1.708963980492854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.892744812558021</v>
+        <v>1.730402114089628</v>
       </c>
       <c r="C15">
-        <v>0.5232632554553049</v>
+        <v>0.3755500413794834</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03943676296892917</v>
+        <v>2.379075712123594</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007760982677600421</v>
+        <v>0.6497939225625942</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3952472352929135</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3211270119372145</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.12115688382012</v>
+        <v>2.031120221933605</v>
       </c>
       <c r="L15">
-        <v>0.5018420649082884</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7908010834802184</v>
+        <v>0.447939445020431</v>
       </c>
       <c r="O15">
-        <v>1.693931640919303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.56387394245445</v>
+        <v>1.616058941226839</v>
       </c>
       <c r="C16">
-        <v>0.4880871338718293</v>
+        <v>0.3500476425546708</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03808289286664568</v>
+        <v>2.206826728579969</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.000781616215269665</v>
+        <v>0.6168992527847195</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3854562053358848</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.313848011069318</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.044232225307084</v>
+        <v>1.895982332411677</v>
       </c>
       <c r="L16">
-        <v>0.4690855543002925</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8232811983056791</v>
+        <v>0.4760409099680301</v>
       </c>
       <c r="O16">
-        <v>1.609692757133018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.364716030367958</v>
+        <v>1.546354268275536</v>
       </c>
       <c r="C17">
-        <v>0.4667504252428785</v>
+        <v>0.3345625874529503</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03727311895655028</v>
+        <v>2.10286853768109</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00078501864412221</v>
+        <v>0.5974750307607479</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3798359621666663</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3097720721954929</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9976285963019507</v>
+        <v>1.813673623433971</v>
       </c>
       <c r="L17">
-        <v>0.4492774950834502</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8439344791791328</v>
+        <v>0.4937231076862822</v>
       </c>
       <c r="O17">
-        <v>1.559614886144985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.251046628281699</v>
+        <v>1.506410407547293</v>
       </c>
       <c r="C18">
-        <v>0.454559201454515</v>
+        <v>0.3257096482633983</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03681460600809316</v>
+        <v>2.043649444998564</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007869827864417074</v>
+        <v>0.5865640729877839</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3767380496882851</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3075635367769465</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9710222299181908</v>
+        <v>1.766531561937512</v>
       </c>
       <c r="L18">
-        <v>0.4379822893100709</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.856069297100241</v>
+        <v>0.5040506258892821</v>
       </c>
       <c r="O18">
-        <v>1.531361481332652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.212704879707474</v>
+        <v>1.492910346041612</v>
       </c>
       <c r="C19">
-        <v>0.4504446562492603</v>
+        <v>0.3227209488687208</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03666057073808027</v>
+        <v>2.023692756565964</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007876491112155805</v>
+        <v>0.5829132071158085</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3757116254452342</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3068384288249888</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9620463790122784</v>
+        <v>1.750602684100045</v>
       </c>
       <c r="L19">
-        <v>0.4341740451793328</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8602207628371019</v>
+        <v>0.5075738346253509</v>
       </c>
       <c r="O19">
-        <v>1.521886401458673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.38582397905958</v>
+        <v>1.553758788542979</v>
       </c>
       <c r="C20">
-        <v>0.4690131857228437</v>
+        <v>0.3362053339322131</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03735856215707578</v>
+        <v>2.113874392879865</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007846557262801981</v>
+        <v>0.5995153669897775</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3804201469864097</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3101917443432285</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.002568686321609</v>
+        <v>1.82241444860847</v>
       </c>
       <c r="L20">
-        <v>0.4513758021014098</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8417091904350755</v>
+        <v>0.4918244174175657</v>
       </c>
       <c r="O20">
-        <v>1.564888005142436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.978516479056225</v>
+        <v>1.760071324535346</v>
       </c>
       <c r="C21">
-        <v>0.5324270280787289</v>
+        <v>0.3821880232470676</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03979306256509929</v>
+        <v>2.424122304006829</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007746783384752458</v>
+        <v>0.6585341847166291</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.39790065555772</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3231329295799341</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.141213372704371</v>
+        <v>2.066209633572072</v>
       </c>
       <c r="L21">
-        <v>0.5103943830193742</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7826505194176718</v>
+        <v>0.4408258358082557</v>
       </c>
       <c r="O21">
-        <v>1.716207570399192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.375325208576555</v>
+        <v>1.896533139156247</v>
       </c>
       <c r="C22">
-        <v>0.5747743357640047</v>
+        <v>0.4128310776094111</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04145731559383137</v>
+        <v>2.633209641569195</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007682039377242132</v>
+        <v>0.699794867782316</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4106847175416561</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3329616186135098</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.23397338408607</v>
+        <v>2.227733441136365</v>
       </c>
       <c r="L22">
-        <v>0.5500068076383684</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7465922354150933</v>
+        <v>0.4090177282955372</v>
       </c>
       <c r="O22">
-        <v>1.820845017672511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.162592461460122</v>
+        <v>1.823536561492574</v>
       </c>
       <c r="C23">
-        <v>0.5520807132719767</v>
+        <v>0.3964163678430168</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04056192990116259</v>
+        <v>2.520974015349282</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007716561037678934</v>
+        <v>0.6775085619774046</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4037289410516962</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3275820906955929</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.184249392609644</v>
+        <v>2.141303483106526</v>
       </c>
       <c r="L23">
-        <v>0.5287609121745191</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7655910085996638</v>
+        <v>0.4258486883721648</v>
       </c>
       <c r="O23">
-        <v>1.764428652847727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.376278509887641</v>
+        <v>1.550410802349461</v>
       </c>
       <c r="C24">
-        <v>0.4679899583448446</v>
+        <v>0.3354624948745766</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03731991145952129</v>
+        <v>2.108896951968831</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007848197761363723</v>
+        <v>0.5985921365538189</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3801556237210377</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3100015924873674</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.000334694149302</v>
+        <v>1.818462170516511</v>
       </c>
       <c r="L24">
-        <v>0.4504268705133967</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8427144334032519</v>
+        <v>0.4926823126687658</v>
       </c>
       <c r="O24">
-        <v>1.562502364242079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.561088862055556</v>
+        <v>1.261336783971046</v>
       </c>
       <c r="C25">
-        <v>0.380306928289599</v>
+        <v>0.2717153343531606</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03409608253607743</v>
+        <v>1.685875808135904</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007993001800053074</v>
+        <v>0.5232956988760975</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3598052896018231</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.296157833768067</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8093889047833471</v>
+        <v>1.477675883342727</v>
       </c>
       <c r="L25">
-        <v>0.3695980739391729</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9355625435908408</v>
+        <v>0.5707263405999239</v>
       </c>
       <c r="O25">
-        <v>1.36535458913437</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.051812780288913</v>
+        <v>0.3586754328301822</v>
       </c>
       <c r="C2">
-        <v>0.2259787598975436</v>
+        <v>0.06782755789456019</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.387483588329005</v>
+        <v>0.4157262113152598</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.4746342735037388</v>
+        <v>0.5752500374835705</v>
       </c>
       <c r="H2">
-        <v>0.3484483468068618</v>
+        <v>0.6916346986531892</v>
       </c>
       <c r="I2">
-        <v>0.2896208584313449</v>
+        <v>0.529599250877034</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.231226101406975</v>
+        <v>0.3971614532771071</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6327526638614969</v>
+        <v>1.302844417335611</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9112623434495788</v>
+        <v>0.3182533808712549</v>
       </c>
       <c r="C3">
-        <v>0.1955086492032763</v>
+        <v>0.05904574915909677</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.191160113196943</v>
+        <v>0.3627153676308268</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.4451583921522513</v>
+        <v>0.5732819939856597</v>
       </c>
       <c r="H3">
-        <v>0.3426928704689089</v>
+        <v>0.6954822043658453</v>
       </c>
       <c r="I3">
-        <v>0.2871458153929325</v>
+        <v>0.5335095302643609</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.06615600956772</v>
+        <v>0.3496537670478119</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.67739095884889</v>
+        <v>1.320296940226546</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8254938840467503</v>
+        <v>0.2934875089234765</v>
       </c>
       <c r="C4">
-        <v>0.1769946282810366</v>
+        <v>0.05364664019596432</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.072879700661218</v>
+        <v>0.3302567501748968</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.4285732647189775</v>
+        <v>0.572556622140084</v>
       </c>
       <c r="H4">
-        <v>0.3400216280938508</v>
+        <v>0.6982252203953863</v>
       </c>
       <c r="I4">
-        <v>0.2864940171674597</v>
+        <v>0.5362553125640375</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.965520027175728</v>
+        <v>0.3205220898519485</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7060099770391304</v>
+        <v>1.331546672064095</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7906512639030723</v>
+        <v>0.283408797938506</v>
       </c>
       <c r="C5">
-        <v>0.169490281367473</v>
+        <v>0.05144458111044514</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.025161808488292</v>
+        <v>0.3170505433176913</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.4221658106156099</v>
+        <v>0.5723819504186309</v>
       </c>
       <c r="H5">
-        <v>0.3391369727213345</v>
+        <v>0.699438589171038</v>
       </c>
       <c r="I5">
-        <v>0.2864333545532496</v>
+        <v>0.537460745669442</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9246576481567104</v>
+        <v>0.3086603049396217</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7179667606241522</v>
+        <v>1.336265115432298</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7848715552467809</v>
+        <v>0.2817360604859402</v>
       </c>
       <c r="C6">
-        <v>0.1682463806101993</v>
+        <v>0.051078814321869</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.017265025204352</v>
+        <v>0.3148588766810292</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.4211222439359972</v>
+        <v>0.5723602341773812</v>
       </c>
       <c r="H6">
-        <v>0.3390020276178234</v>
+        <v>0.6996458359506335</v>
       </c>
       <c r="I6">
-        <v>0.2864352884948467</v>
+        <v>0.5376661253986406</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9178804805301297</v>
+        <v>0.3066912450605344</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7199696653170449</v>
+        <v>1.337056703655449</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.825023575262577</v>
+        <v>0.2933515287082002</v>
       </c>
       <c r="C7">
-        <v>0.1768932700096286</v>
+        <v>0.05361695020110346</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.072234316765602</v>
+        <v>0.3300785641473709</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4284854672325622</v>
+        <v>0.5725537775538214</v>
       </c>
       <c r="H7">
-        <v>0.340008888300062</v>
+        <v>0.6982411975588008</v>
       </c>
       <c r="I7">
-        <v>0.286492386121747</v>
+        <v>0.5362712194869701</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9649683869179739</v>
+        <v>0.3203620787624857</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.706170051758833</v>
+        <v>1.331609763929323</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.003225582233824</v>
+        <v>0.3447268942850883</v>
       </c>
       <c r="C8">
-        <v>0.2154267811538233</v>
+        <v>0.06480098458823136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.319266941034883</v>
+        <v>0.3974282677437913</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.4641385843531225</v>
+        <v>0.5744708814055315</v>
       </c>
       <c r="H8">
-        <v>0.3462766888544877</v>
+        <v>0.6928822296734438</v>
       </c>
       <c r="I8">
-        <v>0.2885790488027595</v>
+        <v>0.5308758122002182</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.174140367685823</v>
+        <v>0.3807728490457691</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6478862758378061</v>
+        <v>1.308751168574948</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.358106508400056</v>
+        <v>0.4458966574308647</v>
       </c>
       <c r="C9">
-        <v>0.2929700701388072</v>
+        <v>0.08668286616023124</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.826010666414746</v>
+        <v>0.5303022766164673</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.547502277298463</v>
+        <v>0.5820881317705471</v>
       </c>
       <c r="H9">
-        <v>0.3660508911745524</v>
+        <v>0.6854004767170636</v>
       </c>
       <c r="I9">
-        <v>0.3002066139895945</v>
+        <v>0.5230415556843475</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.591655748479582</v>
+        <v>0.4995480359200428</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5436934559852453</v>
+        <v>1.26816689417067</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.624033816331803</v>
+        <v>0.5204902423663214</v>
       </c>
       <c r="C10">
-        <v>0.3518222267884994</v>
+        <v>0.1027387290156696</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.218770800786146</v>
+        <v>0.6285405817227314</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.619152266762967</v>
+        <v>0.590073101568052</v>
       </c>
       <c r="H10">
-        <v>0.3861162819417387</v>
+        <v>0.6817594636161175</v>
       </c>
       <c r="I10">
-        <v>0.3143320301267636</v>
+        <v>0.518973889610038</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.90540271352387</v>
+        <v>0.5870190988513855</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4740449437175664</v>
+        <v>1.240942236859192</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.746612872549235</v>
+        <v>0.5544840651353127</v>
       </c>
       <c r="C11">
-        <v>0.3791758552560793</v>
+        <v>0.1100406493594051</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.403670301848209</v>
+        <v>0.6733935968061928</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.6545591198745484</v>
+        <v>0.5942323985227631</v>
       </c>
       <c r="H11">
-        <v>0.3966913461508454</v>
+        <v>0.6805083726857646</v>
       </c>
       <c r="I11">
-        <v>0.3222171186060052</v>
+        <v>0.5174930585981556</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.050291227307184</v>
+        <v>0.626861377670707</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4440437593444422</v>
+        <v>1.229121525549232</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.793305539287985</v>
+        <v>0.5673653740058739</v>
       </c>
       <c r="C12">
-        <v>0.3896338780901658</v>
+        <v>0.1128055592120916</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.474755620685926</v>
+        <v>0.6904039529248678</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.6684232885886416</v>
+        <v>0.5958838126823736</v>
       </c>
       <c r="H12">
-        <v>0.4009269794507162</v>
+        <v>0.6800930738343709</v>
       </c>
       <c r="I12">
-        <v>0.3254360513360481</v>
+        <v>0.516985701178136</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.105527438853528</v>
+        <v>0.6419561532974853</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4329425100505144</v>
+        <v>1.224726592713068</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.783236478212814</v>
+        <v>0.5645907743213456</v>
       </c>
       <c r="C13">
-        <v>0.3873768380228739</v>
+        <v>0.1122100920747187</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.459395634757783</v>
+        <v>0.6867393037647531</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.6654162061743278</v>
+        <v>0.595524744345326</v>
       </c>
       <c r="H13">
-        <v>0.4000040888071936</v>
+        <v>0.6801799126780281</v>
       </c>
       <c r="I13">
-        <v>0.3247320366945559</v>
+        <v>0.5170925905252943</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.093613860698838</v>
+        <v>0.6387048954917702</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4353215184458783</v>
+        <v>1.225669500073991</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.750448535585519</v>
+        <v>0.5555436470012864</v>
       </c>
       <c r="C14">
-        <v>0.3800341431717982</v>
+        <v>0.1102681228809104</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.409496061398613</v>
+        <v>0.6747925270459092</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.6556902692585425</v>
+        <v>0.5943667270981194</v>
       </c>
       <c r="H14">
-        <v>0.397035042132913</v>
+        <v>0.6804730330260611</v>
       </c>
       <c r="I14">
-        <v>0.322477130294935</v>
+        <v>0.51745024627823</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.054827764667635</v>
+        <v>0.6281030862403441</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.443125143506796</v>
+        <v>1.228758320834094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730402114089628</v>
+        <v>0.5500031337238624</v>
       </c>
       <c r="C15">
-        <v>0.3755500413794834</v>
+        <v>0.1090785921093982</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.379075712123594</v>
+        <v>0.6674781586509653</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.6497939225625942</v>
+        <v>0.5936673730840596</v>
       </c>
       <c r="H15">
-        <v>0.3952472352929135</v>
+        <v>0.6806601969209538</v>
       </c>
       <c r="I15">
-        <v>0.3211270119372145</v>
+        <v>0.5176762828315873</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.031120221933605</v>
+        <v>0.6216101317195069</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.447939445020431</v>
+        <v>1.230660908909655</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.616058941226839</v>
+        <v>0.5182698762519067</v>
       </c>
       <c r="C16">
-        <v>0.3500476425546708</v>
+        <v>0.1022615014301493</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.206826728579969</v>
+        <v>0.6256127939310403</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.6168992527847195</v>
+        <v>0.5898119364061216</v>
       </c>
       <c r="H16">
-        <v>0.3854562053358848</v>
+        <v>0.6818493957996736</v>
       </c>
       <c r="I16">
-        <v>0.313848011069318</v>
+        <v>0.519078124056584</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.895982332411677</v>
+        <v>0.5844163433916947</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4760409099680301</v>
+        <v>1.241726114621937</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.546354268275536</v>
+        <v>0.4988180141434952</v>
       </c>
       <c r="C17">
-        <v>0.3345625874529503</v>
+        <v>0.0980790130882383</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.10286853768109</v>
+        <v>0.5999730925466338</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.5974750307607479</v>
+        <v>0.5875821352662456</v>
       </c>
       <c r="H17">
-        <v>0.3798359621666663</v>
+        <v>0.6826828538213334</v>
       </c>
       <c r="I17">
-        <v>0.3097720721954929</v>
+        <v>0.5200329466152454</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.813673623433971</v>
+        <v>0.5616122839893194</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4937231076862822</v>
+        <v>1.248658850815575</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.506410407547293</v>
+        <v>0.4876355522254983</v>
       </c>
       <c r="C18">
-        <v>0.3257096482633983</v>
+        <v>0.09567316383606794</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.043649444998564</v>
+        <v>0.5852411270508782</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.5865640729877839</v>
+        <v>0.5863491695539835</v>
       </c>
       <c r="H18">
-        <v>0.3767380496882851</v>
+        <v>0.6832003668338587</v>
       </c>
       <c r="I18">
-        <v>0.3075635367769465</v>
+        <v>0.5206169055144869</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.766531561937512</v>
+        <v>0.5485008161335259</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5040506258892821</v>
+        <v>1.252699442658697</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.492910346041612</v>
+        <v>0.4838503526652289</v>
       </c>
       <c r="C19">
-        <v>0.3227209488687208</v>
+        <v>0.09485854806970906</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.023692756565964</v>
+        <v>0.5802557083833477</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.5829132071158085</v>
+        <v>0.5859402014241795</v>
       </c>
       <c r="H19">
-        <v>0.3757116254452342</v>
+        <v>0.6833821309287202</v>
       </c>
       <c r="I19">
-        <v>0.3068384288249888</v>
+        <v>0.52082058797982</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.750602684100045</v>
+        <v>0.5440623270333447</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5075738346253509</v>
+        <v>1.25407662495645</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.553758788542979</v>
+        <v>0.5008881057323435</v>
       </c>
       <c r="C20">
-        <v>0.3362053339322131</v>
+        <v>0.09852426521896973</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.113874392879865</v>
+        <v>0.60270088390034</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.5995153669897775</v>
+        <v>0.5878143680239845</v>
       </c>
       <c r="H20">
-        <v>0.3804201469864097</v>
+        <v>0.6825901830962096</v>
       </c>
       <c r="I20">
-        <v>0.3101917443432285</v>
+        <v>0.51992770367535</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.82241444860847</v>
+        <v>0.5640393158045072</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4918244174175657</v>
+        <v>1.247915355541054</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.760071324535346</v>
+        <v>0.5582007758426357</v>
       </c>
       <c r="C21">
-        <v>0.3821880232470676</v>
+        <v>0.1108385299687882</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.424122304006829</v>
+        <v>0.678300877678609</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.6585341847166291</v>
+        <v>0.5947047870421187</v>
       </c>
       <c r="H21">
-        <v>0.39790065555772</v>
+        <v>0.6803853482909261</v>
       </c>
       <c r="I21">
-        <v>0.3231329295799341</v>
+        <v>0.5173437427608434</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.066209633572072</v>
+        <v>0.6312168945891585</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4408258358082557</v>
+        <v>1.227848850665051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.896533139156247</v>
+        <v>0.5957078925407302</v>
       </c>
       <c r="C22">
-        <v>0.4128310776094111</v>
+        <v>0.1188856836587888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.633209641569195</v>
+        <v>0.7278593420332555</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.699794867782316</v>
+        <v>0.5996535544105797</v>
       </c>
       <c r="H22">
-        <v>0.4106847175416561</v>
+        <v>0.6792852139548415</v>
       </c>
       <c r="I22">
-        <v>0.3329616186135098</v>
+        <v>0.5159663585764704</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.227733441136365</v>
+        <v>0.6751642831062838</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4090177282955372</v>
+        <v>1.215208296638609</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.823536561492574</v>
+        <v>0.5756851180108526</v>
       </c>
       <c r="C23">
-        <v>0.3964163678430168</v>
+        <v>0.1145908130932867</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.520974015349282</v>
+        <v>0.7013947373610279</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.6775085619774046</v>
+        <v>0.5969713394270713</v>
       </c>
       <c r="H23">
-        <v>0.4037289410516962</v>
+        <v>0.6798411244279947</v>
       </c>
       <c r="I23">
-        <v>0.3275820906955929</v>
+        <v>0.5166729172557112</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.141303483106526</v>
+        <v>0.6517048031015804</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4258486883721648</v>
+        <v>1.22191134625682</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.550410802349461</v>
+        <v>0.499952215218741</v>
       </c>
       <c r="C24">
-        <v>0.3354624948745766</v>
+        <v>0.09832297073145924</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.108896951968831</v>
+        <v>0.601467622700369</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.5985921365538189</v>
+        <v>0.5877092230742562</v>
       </c>
       <c r="H24">
-        <v>0.3801556237210377</v>
+        <v>0.6826319600881163</v>
       </c>
       <c r="I24">
-        <v>0.3100015924873674</v>
+        <v>0.5199751749400363</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.818462170516511</v>
+        <v>0.562942058183836</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4926823126687658</v>
+        <v>1.248251318840978</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.261336783971046</v>
+        <v>0.4184816427561486</v>
       </c>
       <c r="C25">
-        <v>0.2717153343531606</v>
+        <v>0.08076758921784233</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.685875808135904</v>
+        <v>0.4942574579925036</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.5232956988760975</v>
+        <v>0.5796106736476929</v>
       </c>
       <c r="H25">
-        <v>0.3598052896018231</v>
+        <v>0.6870993453430856</v>
       </c>
       <c r="I25">
-        <v>0.296157833768067</v>
+        <v>0.5248654933430927</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.477675883342727</v>
+        <v>0.4673811827086922</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5707263405999239</v>
+        <v>1.278691247295995</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3586754328301822</v>
+        <v>1.051812780288884</v>
       </c>
       <c r="C2">
-        <v>0.06782755789456019</v>
+        <v>0.2259787598975436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4157262113152598</v>
+        <v>1.387483588329061</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5752500374835705</v>
+        <v>0.474634273503753</v>
       </c>
       <c r="H2">
-        <v>0.6916346986531892</v>
+        <v>0.3484483468068476</v>
       </c>
       <c r="I2">
-        <v>0.529599250877034</v>
+        <v>0.2896208584313307</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3971614532771071</v>
+        <v>1.231226101407032</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.302844417335611</v>
+        <v>0.6327526638614716</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3182533808712549</v>
+        <v>0.9112623434494367</v>
       </c>
       <c r="C3">
-        <v>0.05904574915909677</v>
+        <v>0.1955086492034468</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3627153676308268</v>
+        <v>1.191160113196929</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5732819939856597</v>
+        <v>0.4451583921522229</v>
       </c>
       <c r="H3">
-        <v>0.6954822043658453</v>
+        <v>0.3426928704689374</v>
       </c>
       <c r="I3">
-        <v>0.5335095302643609</v>
+        <v>0.287145815392936</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3496537670478119</v>
+        <v>1.06615600956772</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.320296940226546</v>
+        <v>0.6773909588489531</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2934875089234765</v>
+        <v>0.8254938840469492</v>
       </c>
       <c r="C4">
-        <v>0.05364664019596432</v>
+        <v>0.1769946282814345</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3302567501748968</v>
+        <v>1.072879700661204</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.572556622140084</v>
+        <v>0.4285732647189633</v>
       </c>
       <c r="H4">
-        <v>0.6982252203953863</v>
+        <v>0.3400216280938366</v>
       </c>
       <c r="I4">
-        <v>0.5362553125640375</v>
+        <v>0.286494017167481</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3205220898519485</v>
+        <v>0.9655200271758133</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.331546672064095</v>
+        <v>0.7060099770391219</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.283408797938506</v>
+        <v>0.790651263902987</v>
       </c>
       <c r="C5">
-        <v>0.05144458111044514</v>
+        <v>0.1694902813674446</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3170505433176913</v>
+        <v>1.025161808488321</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5723819504186309</v>
+        <v>0.4221658106156383</v>
       </c>
       <c r="H5">
-        <v>0.699438589171038</v>
+        <v>0.3391369727214482</v>
       </c>
       <c r="I5">
-        <v>0.537460745669442</v>
+        <v>0.2864333545532602</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3086603049396217</v>
+        <v>0.9246576481567104</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.336265115432298</v>
+        <v>0.7179667606241451</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2817360604859402</v>
+        <v>0.7848715552467809</v>
       </c>
       <c r="C6">
-        <v>0.051078814321869</v>
+        <v>0.1682463806099719</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3148588766810292</v>
+        <v>1.017265025204338</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.5723602341773812</v>
+        <v>0.4211222439359972</v>
       </c>
       <c r="H6">
-        <v>0.6996458359506335</v>
+        <v>0.3390020276179371</v>
       </c>
       <c r="I6">
-        <v>0.5376661253986406</v>
+        <v>0.2864352884948609</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3066912450605344</v>
+        <v>0.9178804805301581</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.337056703655449</v>
+        <v>0.719969665317048</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2933515287082002</v>
+        <v>0.8250235752626054</v>
       </c>
       <c r="C7">
-        <v>0.05361695020110346</v>
+        <v>0.1768932700100834</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3300785641473709</v>
+        <v>1.072234316765631</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5725537775538214</v>
+        <v>0.4284854672325764</v>
       </c>
       <c r="H7">
-        <v>0.6982411975588008</v>
+        <v>0.3400088882999626</v>
       </c>
       <c r="I7">
-        <v>0.5362712194869701</v>
+        <v>0.2864923861217363</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3203620787624857</v>
+        <v>0.9649683869179455</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.331609763929323</v>
+        <v>0.7061700517588272</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3447268942850883</v>
+        <v>1.003225582233938</v>
       </c>
       <c r="C8">
-        <v>0.06480098458823136</v>
+        <v>0.2154267811539228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3974282677437913</v>
+        <v>1.319266941034869</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5744708814055315</v>
+        <v>0.4641385843532078</v>
       </c>
       <c r="H8">
-        <v>0.6928822296734438</v>
+        <v>0.3462766888544593</v>
       </c>
       <c r="I8">
-        <v>0.5308758122002182</v>
+        <v>0.2885790488027453</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3807728490457691</v>
+        <v>1.174140367685794</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.308751168574948</v>
+        <v>0.6478862758378585</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4458966574308647</v>
+        <v>1.358106508399999</v>
       </c>
       <c r="C9">
-        <v>0.08668286616023124</v>
+        <v>0.2929700701386082</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5303022766164673</v>
+        <v>1.826010666414703</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5820881317705471</v>
+        <v>0.5475022772983351</v>
       </c>
       <c r="H9">
-        <v>0.6854004767170636</v>
+        <v>0.3660508911744529</v>
       </c>
       <c r="I9">
-        <v>0.5230415556843475</v>
+        <v>0.3002066139895803</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4995480359200428</v>
+        <v>1.591655748479639</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.26816689417067</v>
+        <v>0.5436934559852435</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5204902423663214</v>
+        <v>1.624033816331888</v>
       </c>
       <c r="C10">
-        <v>0.1027387290156696</v>
+        <v>0.3518222267884994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6285405817227314</v>
+        <v>2.218770800786118</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.590073101568052</v>
+        <v>0.619152266762967</v>
       </c>
       <c r="H10">
-        <v>0.6817594636161175</v>
+        <v>0.3861162819418666</v>
       </c>
       <c r="I10">
-        <v>0.518973889610038</v>
+        <v>0.3143320301267565</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5870190988513855</v>
+        <v>1.905402713524069</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.240942236859192</v>
+        <v>0.4740449437175087</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5544840651353127</v>
+        <v>1.746612872549235</v>
       </c>
       <c r="C11">
-        <v>0.1100406493594051</v>
+        <v>0.3791758552560509</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6733935968061928</v>
+        <v>2.403670301848265</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5942323985227631</v>
+        <v>0.6545591198746479</v>
       </c>
       <c r="H11">
-        <v>0.6805083726857646</v>
+        <v>0.3966913461508597</v>
       </c>
       <c r="I11">
-        <v>0.5174930585981556</v>
+        <v>0.3222171186060123</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.626861377670707</v>
+        <v>2.050291227307383</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.229121525549232</v>
+        <v>0.4440437593444413</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5673653740058739</v>
+        <v>1.793305539287957</v>
       </c>
       <c r="C12">
-        <v>0.1128055592120916</v>
+        <v>0.3896338780902227</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6904039529248678</v>
+        <v>2.474755620685897</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5958838126823736</v>
+        <v>0.6684232885886701</v>
       </c>
       <c r="H12">
-        <v>0.6800930738343709</v>
+        <v>0.4009269794507162</v>
       </c>
       <c r="I12">
-        <v>0.516985701178136</v>
+        <v>0.3254360513360552</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6419561532974853</v>
+        <v>2.105527438853585</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.224726592713068</v>
+        <v>0.4329425100505002</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5645907743213456</v>
+        <v>1.783236478212785</v>
       </c>
       <c r="C13">
-        <v>0.1122100920747187</v>
+        <v>0.3873768380229023</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6867393037647531</v>
+        <v>2.45939563475774</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.595524744345326</v>
+        <v>0.6654162061742852</v>
       </c>
       <c r="H13">
-        <v>0.6801799126780281</v>
+        <v>0.4000040888072078</v>
       </c>
       <c r="I13">
-        <v>0.5170925905252943</v>
+        <v>0.324732036694563</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6387048954917702</v>
+        <v>2.093613860698866</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.225669500073991</v>
+        <v>0.4353215184458845</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5555436470012864</v>
+        <v>1.750448535585491</v>
       </c>
       <c r="C14">
-        <v>0.1102681228809104</v>
+        <v>0.3800341431715708</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6747925270459092</v>
+        <v>2.409496061398627</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5943667270981194</v>
+        <v>0.6556902692585425</v>
       </c>
       <c r="H14">
-        <v>0.6804730330260611</v>
+        <v>0.3970350421330551</v>
       </c>
       <c r="I14">
-        <v>0.51745024627823</v>
+        <v>0.3224771302949136</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6281030862403441</v>
+        <v>2.054827764667607</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.228758320834094</v>
+        <v>0.4431251435067862</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5500031337238624</v>
+        <v>1.730402114089628</v>
       </c>
       <c r="C15">
-        <v>0.1090785921093982</v>
+        <v>0.3755500413798245</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6674781586509653</v>
+        <v>2.379075712123566</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.5936673730840596</v>
+        <v>0.6497939225625231</v>
       </c>
       <c r="H15">
-        <v>0.6806601969209538</v>
+        <v>0.3952472352930272</v>
       </c>
       <c r="I15">
-        <v>0.5176762828315873</v>
+        <v>0.3211270119372571</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6216101317195069</v>
+        <v>2.031120221933662</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.230660908909655</v>
+        <v>0.4479394450204515</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5182698762519067</v>
+        <v>1.616058941226868</v>
       </c>
       <c r="C16">
-        <v>0.1022615014301493</v>
+        <v>0.3500476425544434</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6256127939310403</v>
+        <v>2.206826728579955</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5898119364061216</v>
+        <v>0.6168992527846342</v>
       </c>
       <c r="H16">
-        <v>0.6818493957996736</v>
+        <v>0.385456205335899</v>
       </c>
       <c r="I16">
-        <v>0.519078124056584</v>
+        <v>0.3138480110693251</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5844163433916947</v>
+        <v>1.895982332411648</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.241726114621937</v>
+        <v>0.4760409099680265</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4988180141434952</v>
+        <v>1.546354268275479</v>
       </c>
       <c r="C17">
-        <v>0.0980790130882383</v>
+        <v>0.3345625874528935</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5999730925466338</v>
+        <v>2.102868537681161</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5875821352662456</v>
+        <v>0.5974750307607337</v>
       </c>
       <c r="H17">
-        <v>0.6826828538213334</v>
+        <v>0.3798359621666378</v>
       </c>
       <c r="I17">
-        <v>0.5200329466152454</v>
+        <v>0.3097720721955213</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5616122839893194</v>
+        <v>1.813673623433971</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.248658850815575</v>
+        <v>0.4937231076862636</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4876355522254983</v>
+        <v>1.506410407547094</v>
       </c>
       <c r="C18">
-        <v>0.09567316383606794</v>
+        <v>0.3257096482633699</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5852411270508782</v>
+        <v>2.043649444998607</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5863491695539835</v>
+        <v>0.586564072987855</v>
       </c>
       <c r="H18">
-        <v>0.6832003668338587</v>
+        <v>0.3767380496882851</v>
       </c>
       <c r="I18">
-        <v>0.5206169055144869</v>
+        <v>0.3075635367769536</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5485008161335259</v>
+        <v>1.766531561937512</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.252699442658697</v>
+        <v>0.5040506258892945</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4838503526652289</v>
+        <v>1.492910346041441</v>
       </c>
       <c r="C19">
-        <v>0.09485854806970906</v>
+        <v>0.3227209488688914</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5802557083833477</v>
+        <v>2.023692756565993</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5859402014241795</v>
+        <v>0.5829132071158227</v>
       </c>
       <c r="H19">
-        <v>0.6833821309287202</v>
+        <v>0.3757116254452342</v>
       </c>
       <c r="I19">
-        <v>0.52082058797982</v>
+        <v>0.3068384288249959</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5440623270333447</v>
+        <v>1.750602684099903</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.25407662495645</v>
+        <v>0.5075738346253456</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5008881057323435</v>
+        <v>1.553758788542922</v>
       </c>
       <c r="C20">
-        <v>0.09852426521896973</v>
+        <v>0.3362053339323552</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.60270088390034</v>
+        <v>2.11387439287985</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5878143680239845</v>
+        <v>0.5995153669897491</v>
       </c>
       <c r="H20">
-        <v>0.6825901830962096</v>
+        <v>0.3804201469865234</v>
       </c>
       <c r="I20">
-        <v>0.51992770367535</v>
+        <v>0.3101917443432143</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5640393158045072</v>
+        <v>1.82241444860847</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.247915355541054</v>
+        <v>0.4918244174175106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5582007758426357</v>
+        <v>1.760071324535488</v>
       </c>
       <c r="C21">
-        <v>0.1108385299687882</v>
+        <v>0.3821880232472665</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.678300877678609</v>
+        <v>2.424122304006829</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5947047870421187</v>
+        <v>0.6585341847165864</v>
       </c>
       <c r="H21">
-        <v>0.6803853482909261</v>
+        <v>0.3979006555577342</v>
       </c>
       <c r="I21">
-        <v>0.5173437427608434</v>
+        <v>0.3231329295799625</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6312168945891585</v>
+        <v>2.066209633572186</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.227848850665051</v>
+        <v>0.4408258358082984</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5957078925407302</v>
+        <v>1.896533139156247</v>
       </c>
       <c r="C22">
-        <v>0.1188856836587888</v>
+        <v>0.4128310776094111</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7278593420332555</v>
+        <v>2.633209641569181</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.5996535544105797</v>
+        <v>0.6997948677822592</v>
       </c>
       <c r="H22">
-        <v>0.6792852139548415</v>
+        <v>0.4106847175415425</v>
       </c>
       <c r="I22">
-        <v>0.5159663585764704</v>
+        <v>0.332961618613524</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6751642831062838</v>
+        <v>2.227733441136252</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.215208296638609</v>
+        <v>0.4090177282955336</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5756851180108526</v>
+        <v>1.823536561492716</v>
       </c>
       <c r="C23">
-        <v>0.1145908130932867</v>
+        <v>0.3964163678429884</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7013947373610279</v>
+        <v>2.520974015349239</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.5969713394270713</v>
+        <v>0.6775085619773762</v>
       </c>
       <c r="H23">
-        <v>0.6798411244279947</v>
+        <v>0.4037289410517104</v>
       </c>
       <c r="I23">
-        <v>0.5166729172557112</v>
+        <v>0.3275820906956142</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6517048031015804</v>
+        <v>2.141303483106526</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.22191134625682</v>
+        <v>0.4258486883721648</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.499952215218741</v>
+        <v>1.550410802349262</v>
       </c>
       <c r="C24">
-        <v>0.09832297073145924</v>
+        <v>0.3354624948743492</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.601467622700369</v>
+        <v>2.108896951968802</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5877092230742562</v>
+        <v>0.5985921365538189</v>
       </c>
       <c r="H24">
-        <v>0.6826319600881163</v>
+        <v>0.3801556237209383</v>
       </c>
       <c r="I24">
-        <v>0.5199751749400363</v>
+        <v>0.3100015924873674</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.562942058183836</v>
+        <v>1.818462170516369</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.248251318840978</v>
+        <v>0.4926823126687774</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4184816427561486</v>
+        <v>1.261336783971188</v>
       </c>
       <c r="C25">
-        <v>0.08076758921784233</v>
+        <v>0.2717153343530896</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4942574579925036</v>
+        <v>1.685875808135918</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5796106736476929</v>
+        <v>0.5232956988761401</v>
       </c>
       <c r="H25">
-        <v>0.6870993453430856</v>
+        <v>0.3598052896018373</v>
       </c>
       <c r="I25">
-        <v>0.5248654933430927</v>
+        <v>0.2961578337680635</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4673811827086922</v>
+        <v>1.477675883342897</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.278691247295995</v>
+        <v>0.5707263405999257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.051812780288884</v>
+        <v>0.9606574431226989</v>
       </c>
       <c r="C2">
-        <v>0.2259787598975436</v>
+        <v>0.136685354745552</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.387483588329061</v>
+        <v>0.09319977757305509</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.474634273503753</v>
+        <v>0.2511121389017035</v>
       </c>
       <c r="H2">
-        <v>0.3484483468068476</v>
+        <v>0.0009386141895605382</v>
       </c>
       <c r="I2">
-        <v>0.2896208584313307</v>
+        <v>0.001711806618561962</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2620803083639629</v>
       </c>
       <c r="K2">
-        <v>1.231226101407032</v>
+        <v>0.2977170459959986</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.781074716880596</v>
       </c>
       <c r="N2">
-        <v>0.6327526638614716</v>
+        <v>0.267403753576076</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8513395485188724</v>
+      </c>
+      <c r="Q2">
+        <v>1.028642317413301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9112623434494367</v>
+        <v>0.8373147447244094</v>
       </c>
       <c r="C3">
-        <v>0.1955086492034468</v>
+        <v>0.1328122607798221</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.191160113196929</v>
+        <v>0.08605007587671665</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.4451583921522229</v>
+        <v>0.2492843614208056</v>
       </c>
       <c r="H3">
-        <v>0.3426928704689374</v>
+        <v>0.001636206000970364</v>
       </c>
       <c r="I3">
-        <v>0.287145815392936</v>
+        <v>0.002413970855107195</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2647434830358009</v>
       </c>
       <c r="K3">
-        <v>1.06615600956772</v>
+        <v>0.3009214343678437</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6834768573221339</v>
       </c>
       <c r="N3">
-        <v>0.6773909588489531</v>
+        <v>0.2365452870869404</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8678319957211542</v>
+      </c>
+      <c r="Q3">
+        <v>1.030118690383034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8254938840469492</v>
+        <v>0.7611572158132844</v>
       </c>
       <c r="C4">
-        <v>0.1769946282814345</v>
+        <v>0.1304276633075325</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.072879700661204</v>
+        <v>0.08162622999547864</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.4285732647189633</v>
+        <v>0.2484130136640132</v>
       </c>
       <c r="H4">
-        <v>0.3400216280938366</v>
+        <v>0.002182112116614121</v>
       </c>
       <c r="I4">
-        <v>0.286494017167481</v>
+        <v>0.002974849782633626</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2665629265938705</v>
       </c>
       <c r="K4">
-        <v>0.9655200271758133</v>
+        <v>0.3030649830293424</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6233767553419227</v>
       </c>
       <c r="N4">
-        <v>0.7060099770391219</v>
+        <v>0.2176039161778505</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8785463416808597</v>
+      </c>
+      <c r="Q4">
+        <v>1.031937065732194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.790651263902987</v>
+        <v>0.7293548833805232</v>
       </c>
       <c r="C5">
-        <v>0.1694902813674446</v>
+        <v>0.1295265639561443</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.025161808488321</v>
+        <v>0.0797533180035721</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.4221658106156383</v>
+        <v>0.2478847514739115</v>
       </c>
       <c r="H5">
-        <v>0.3391369727214482</v>
+        <v>0.002434803577030409</v>
       </c>
       <c r="I5">
-        <v>0.2864333545532602</v>
+        <v>0.003309495023965159</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2672261650754493</v>
       </c>
       <c r="K5">
-        <v>0.9246576481567104</v>
+        <v>0.3037580793139441</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5988261302296536</v>
       </c>
       <c r="N5">
-        <v>0.7179667606241451</v>
+        <v>0.2099437561563207</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8832004542274419</v>
+      </c>
+      <c r="Q5">
+        <v>1.032145376049215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7848715552467809</v>
+        <v>0.7232585538056924</v>
       </c>
       <c r="C6">
-        <v>0.1682463806099719</v>
+        <v>0.1294672842423772</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.017265025204338</v>
+        <v>0.0793665706515192</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.4211222439359972</v>
+        <v>0.2475146895508473</v>
       </c>
       <c r="H6">
-        <v>0.3390020276179371</v>
+        <v>0.002480661028009645</v>
       </c>
       <c r="I6">
-        <v>0.2864352884948609</v>
+        <v>0.003465429691805078</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2671879538687847</v>
       </c>
       <c r="K6">
-        <v>0.9178804805301581</v>
+        <v>0.303602608149717</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5947299439800275</v>
       </c>
       <c r="N6">
-        <v>0.719969665317048</v>
+        <v>0.2087433168340169</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8841590751812944</v>
+      </c>
+      <c r="Q6">
+        <v>1.031270296215567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8250235752626054</v>
+        <v>0.7585116652842601</v>
       </c>
       <c r="C7">
-        <v>0.1768932700100834</v>
+        <v>0.1306641874778123</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.072234316765631</v>
+        <v>0.08139552945413797</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4284854672325764</v>
+        <v>0.2476256073073415</v>
       </c>
       <c r="H7">
-        <v>0.3400088882999626</v>
+        <v>0.002190923481756646</v>
       </c>
       <c r="I7">
-        <v>0.2864923861217363</v>
+        <v>0.003232973629625491</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2661604264754942</v>
       </c>
       <c r="K7">
-        <v>0.9649683869179455</v>
+        <v>0.3023298624645658</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6229997484290379</v>
       </c>
       <c r="N7">
-        <v>0.7061700517588272</v>
+        <v>0.2176967032615806</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8791050324197762</v>
+      </c>
+      <c r="Q7">
+        <v>1.029423120978834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.003225582233938</v>
+        <v>0.9152559438149694</v>
       </c>
       <c r="C8">
-        <v>0.2154267811539228</v>
+        <v>0.1356897865694613</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.319266941034869</v>
+        <v>0.09046971921947744</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.4641385843532078</v>
+        <v>0.2494020449687326</v>
       </c>
       <c r="H8">
-        <v>0.3462766888544593</v>
+        <v>0.001159023073515231</v>
       </c>
       <c r="I8">
-        <v>0.2885790488027453</v>
+        <v>0.00223289898184742</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2624217440828289</v>
       </c>
       <c r="K8">
-        <v>1.174140367685794</v>
+        <v>0.2978097612771045</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.747395743491964</v>
       </c>
       <c r="N8">
-        <v>0.6478862758378585</v>
+        <v>0.2570242416769588</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8576154412526265</v>
+      </c>
+      <c r="Q8">
+        <v>1.025654250783077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.358106508399999</v>
+        <v>1.223276722316228</v>
       </c>
       <c r="C9">
-        <v>0.2929700701386082</v>
+        <v>0.1450719857181397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.826010666414703</v>
+        <v>0.1083696401988945</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.5475022772983351</v>
+        <v>0.2563690466973725</v>
       </c>
       <c r="H9">
-        <v>0.3660508911744529</v>
+        <v>0.0001161927396848839</v>
       </c>
       <c r="I9">
-        <v>0.3002066139895803</v>
+        <v>0.0009657286671194143</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2573202587523653</v>
       </c>
       <c r="K9">
-        <v>1.591655748479639</v>
+        <v>0.2917017483223816</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9901318667625958</v>
       </c>
       <c r="N9">
-        <v>0.5436934559852435</v>
+        <v>0.3338984235360272</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.819310651289598</v>
+      </c>
+      <c r="Q9">
+        <v>1.030273355702079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.624033816331888</v>
+        <v>1.436887857479718</v>
       </c>
       <c r="C10">
-        <v>0.3518222267884994</v>
+        <v>0.1531114144144823</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.218770800786118</v>
+        <v>0.1159508170732089</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.619152266762967</v>
+        <v>0.2587886840646831</v>
       </c>
       <c r="H10">
-        <v>0.3861162819418666</v>
+        <v>0.0002032641573275207</v>
       </c>
       <c r="I10">
-        <v>0.3143320301267565</v>
+        <v>0.0009004116656265992</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.252440361359028</v>
       </c>
       <c r="K10">
-        <v>1.905402713524069</v>
+        <v>0.2846659940731335</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.166284751067991</v>
       </c>
       <c r="N10">
-        <v>0.4740449437175087</v>
+        <v>0.3731786433919808</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7978415455936769</v>
+      </c>
+      <c r="Q10">
+        <v>1.025543084657585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.746612872549235</v>
+        <v>1.446799116750753</v>
       </c>
       <c r="C11">
-        <v>0.3791758552560509</v>
+        <v>0.1676104907656892</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.403670301848265</v>
+        <v>0.07927415796032733</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6545591198746479</v>
+        <v>0.2277596616759539</v>
       </c>
       <c r="H11">
-        <v>0.3966913461508597</v>
+        <v>0.0187540079589148</v>
       </c>
       <c r="I11">
-        <v>0.3222171186060123</v>
+        <v>0.001429775747380013</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.233768098083921</v>
       </c>
       <c r="K11">
-        <v>2.050291227307383</v>
+        <v>0.2551266269466055</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.232756546540514</v>
       </c>
       <c r="N11">
-        <v>0.4440437593444413</v>
+        <v>0.2545863917762432</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8224017085157769</v>
+      </c>
+      <c r="Q11">
+        <v>0.9207858259505741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.793305539287957</v>
+        <v>1.413071138732505</v>
       </c>
       <c r="C12">
-        <v>0.3896338780902227</v>
+        <v>0.1800721848532874</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.474755620685897</v>
+        <v>0.05550701407270964</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.6684232885886701</v>
+        <v>0.2036103823981037</v>
       </c>
       <c r="H12">
-        <v>0.4009269794507162</v>
+        <v>0.05742078050999311</v>
       </c>
       <c r="I12">
-        <v>0.3254360513360552</v>
+        <v>0.001429784706591164</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2201779349396631</v>
       </c>
       <c r="K12">
-        <v>2.105527438853585</v>
+        <v>0.2347260796413799</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.251519625424834</v>
       </c>
       <c r="N12">
-        <v>0.4329425100505002</v>
+        <v>0.1658356093849562</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8520379959702424</v>
+      </c>
+      <c r="Q12">
+        <v>0.8411661573278479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.783236478212785</v>
+        <v>1.340556724011378</v>
       </c>
       <c r="C13">
-        <v>0.3873768380229023</v>
+        <v>0.1918919072392242</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.45939563475774</v>
+        <v>0.03992650419664923</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.6654162061742852</v>
+        <v>0.1820439414651602</v>
       </c>
       <c r="H13">
-        <v>0.4000040888072078</v>
+        <v>0.1131703770977026</v>
       </c>
       <c r="I13">
-        <v>0.324732036694563</v>
+        <v>0.00138966991991385</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2089952170579963</v>
       </c>
       <c r="K13">
-        <v>2.093613860698866</v>
+        <v>0.2189050812275166</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.234413650679613</v>
       </c>
       <c r="N13">
-        <v>0.4353215184458845</v>
+        <v>0.09542393681724093</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8871928397568567</v>
+      </c>
+      <c r="Q13">
+        <v>0.7719947451126217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.750448535585491</v>
+        <v>1.27197658082801</v>
       </c>
       <c r="C14">
-        <v>0.3800341431715708</v>
+        <v>0.2002292315196854</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.409496061398627</v>
+        <v>0.03386661315959305</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6556902692585425</v>
+        <v>0.168228910201794</v>
       </c>
       <c r="H14">
-        <v>0.3970350421330551</v>
+        <v>0.1625230214926887</v>
       </c>
       <c r="I14">
-        <v>0.3224771302949136</v>
+        <v>0.001436555353072855</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2022785426750673</v>
       </c>
       <c r="K14">
-        <v>2.054827764667607</v>
+        <v>0.2100629047655929</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.206215191290369</v>
       </c>
       <c r="N14">
-        <v>0.4431251435067862</v>
+        <v>0.05746905065236518</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.914847781615606</v>
+      </c>
+      <c r="Q14">
+        <v>0.7285865764399801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730402114089628</v>
+        <v>1.246371603398643</v>
       </c>
       <c r="C15">
-        <v>0.3755500413798245</v>
+        <v>0.2020354122732329</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.379075712123566</v>
+        <v>0.03302978461271089</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.6497939225625231</v>
+        <v>0.1650479127204534</v>
       </c>
       <c r="H15">
-        <v>0.3952472352930272</v>
+        <v>0.1750354485432979</v>
       </c>
       <c r="I15">
-        <v>0.3211270119372571</v>
+        <v>0.001561483638392147</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2009814830025185</v>
       </c>
       <c r="K15">
-        <v>2.031120221933662</v>
+        <v>0.2084844603413032</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.191723736592422</v>
       </c>
       <c r="N15">
-        <v>0.4479394450204515</v>
+        <v>0.04964270131992521</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.922375740712539</v>
+      </c>
+      <c r="Q15">
+        <v>0.7190975492030844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.616058941226868</v>
+        <v>1.169810919193168</v>
       </c>
       <c r="C16">
-        <v>0.3500476425544434</v>
+        <v>0.1958772846650589</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.206826728579955</v>
+        <v>0.03320816852276143</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6168992527846342</v>
+        <v>0.1678644273098477</v>
       </c>
       <c r="H16">
-        <v>0.385456205335899</v>
+        <v>0.1623084346608721</v>
       </c>
       <c r="I16">
-        <v>0.3138480110693251</v>
+        <v>0.001733483371346267</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2049509447503262</v>
       </c>
       <c r="K16">
-        <v>1.895982332411648</v>
+        <v>0.2141301429408529</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.119528050379273</v>
       </c>
       <c r="N16">
-        <v>0.4760409099680265</v>
+        <v>0.0490727915198832</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9218934382163582</v>
+      </c>
+      <c r="Q16">
+        <v>0.7332319760471009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.546354268275479</v>
+        <v>1.14720088770062</v>
       </c>
       <c r="C17">
-        <v>0.3345625874528935</v>
+        <v>0.1866229757844309</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.102868537681161</v>
+        <v>0.03573704403344591</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5974750307607337</v>
+        <v>0.1772510176765429</v>
       </c>
       <c r="H17">
-        <v>0.3798359621666378</v>
+        <v>0.1245323671285661</v>
       </c>
       <c r="I17">
-        <v>0.3097720721955213</v>
+        <v>0.00186846541912189</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2115476951543869</v>
       </c>
       <c r="K17">
-        <v>1.813673623433971</v>
+        <v>0.2230127037618033</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.079214958781648</v>
       </c>
       <c r="N17">
-        <v>0.4937231076862636</v>
+        <v>0.06670068296531895</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.907018852670987</v>
+      </c>
+      <c r="Q17">
+        <v>0.766860883099703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.506410407547094</v>
+        <v>1.170236521320135</v>
       </c>
       <c r="C18">
-        <v>0.3257096482633699</v>
+        <v>0.1742502918038156</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.043649444998607</v>
+        <v>0.04481173243400072</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.586564072987855</v>
+        <v>0.1945695567478083</v>
       </c>
       <c r="H18">
-        <v>0.3767380496882851</v>
+        <v>0.07168409617720073</v>
       </c>
       <c r="I18">
-        <v>0.3075635367769536</v>
+        <v>0.001663968246165659</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2217015098806669</v>
       </c>
       <c r="K18">
-        <v>1.766531561937512</v>
+        <v>0.2370742680501259</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.061637895745378</v>
       </c>
       <c r="N18">
-        <v>0.5040506258892945</v>
+        <v>0.111942508218533</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8794885979286065</v>
+      </c>
+      <c r="Q18">
+        <v>0.8248033441022216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.492910346041441</v>
+        <v>1.224665117502667</v>
       </c>
       <c r="C19">
-        <v>0.3227209488688914</v>
+        <v>0.1628174555362421</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.023692756565993</v>
+        <v>0.06463632615361803</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5829132071158227</v>
+        <v>0.2171664557733024</v>
       </c>
       <c r="H19">
-        <v>0.3757116254452342</v>
+        <v>0.02637253508851956</v>
       </c>
       <c r="I19">
-        <v>0.3068384288249959</v>
+        <v>0.00174126037481237</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2339097164095705</v>
       </c>
       <c r="K19">
-        <v>1.750602684099903</v>
+        <v>0.2549534247811955</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.063453331095729</v>
       </c>
       <c r="N19">
-        <v>0.5075738346253456</v>
+        <v>0.1915948639931813</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8489808826246232</v>
+      </c>
+      <c r="Q19">
+        <v>0.8982805034536483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.553758788542922</v>
+        <v>1.373470843900179</v>
       </c>
       <c r="C20">
-        <v>0.3362053339323552</v>
+        <v>0.1519233419154276</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.11387439287985</v>
+        <v>0.1131175942971829</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5995153669897491</v>
+        <v>0.2555263832557912</v>
       </c>
       <c r="H20">
-        <v>0.3804201469865234</v>
+        <v>0.0001181933461786855</v>
       </c>
       <c r="I20">
-        <v>0.3101917443432143</v>
+        <v>0.001658187830405389</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2523435280646922</v>
       </c>
       <c r="K20">
-        <v>1.82241444860847</v>
+        <v>0.2840979785284539</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.119854625969509</v>
       </c>
       <c r="N20">
-        <v>0.4918244174175106</v>
+        <v>0.3627459364830656</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8053654631772105</v>
+      </c>
+      <c r="Q20">
+        <v>1.018329900751766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.760071324535488</v>
+        <v>1.552944415982154</v>
       </c>
       <c r="C21">
-        <v>0.3821880232472665</v>
+        <v>0.1564573363175086</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.424122304006829</v>
+        <v>0.1272471992272202</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6585341847165864</v>
+        <v>0.2642031751328417</v>
       </c>
       <c r="H21">
-        <v>0.3979006555577342</v>
+        <v>0.0001660702603463182</v>
       </c>
       <c r="I21">
-        <v>0.3231329295799625</v>
+        <v>0.001685554199084116</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.25216465546373</v>
       </c>
       <c r="K21">
-        <v>2.066209633572186</v>
+        <v>0.2843520202723084</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.25725681054206</v>
       </c>
       <c r="N21">
-        <v>0.4408258358082984</v>
+        <v>0.4198416674604317</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7846890410318181</v>
+      </c>
+      <c r="Q21">
+        <v>1.036623957071569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.896533139156247</v>
+        <v>1.668012008382135</v>
       </c>
       <c r="C22">
-        <v>0.4128310776094111</v>
+        <v>0.1595790475511976</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.633209641569181</v>
+        <v>0.134019995674624</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.6997948677822592</v>
+        <v>0.2692628376829731</v>
       </c>
       <c r="H22">
-        <v>0.4106847175415425</v>
+        <v>0.0004232755218482875</v>
       </c>
       <c r="I22">
-        <v>0.332961618613524</v>
+        <v>0.001547675807500148</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2517796923692686</v>
       </c>
       <c r="K22">
-        <v>2.227733441136252</v>
+        <v>0.284041472717977</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.346286096072987</v>
       </c>
       <c r="N22">
-        <v>0.4090177282955336</v>
+        <v>0.4480543256021008</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7725864695916869</v>
+      </c>
+      <c r="Q22">
+        <v>1.046716801241431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.823536561492716</v>
+        <v>1.60932721508803</v>
       </c>
       <c r="C23">
-        <v>0.3964163678429884</v>
+        <v>0.1575744302639634</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.520974015349239</v>
+        <v>0.1306487718091169</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.6775085619773762</v>
+        <v>0.2674282229703095</v>
       </c>
       <c r="H23">
-        <v>0.4037289410517104</v>
+        <v>0.0002736031110004422</v>
       </c>
       <c r="I23">
-        <v>0.3275820906956142</v>
+        <v>0.001304812706274916</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2524290759607766</v>
       </c>
       <c r="K23">
-        <v>2.141303483106526</v>
+        <v>0.2850271120047658</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.298834513269526</v>
       </c>
       <c r="N23">
-        <v>0.4258486883721648</v>
+        <v>0.4327498967790291</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7782071048362127</v>
+      </c>
+      <c r="Q23">
+        <v>1.04409615200197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.550410802349262</v>
+        <v>1.382182137769178</v>
       </c>
       <c r="C24">
-        <v>0.3354624948743492</v>
+        <v>0.1505623063733736</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.108896951968802</v>
+        <v>0.117461633488567</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5985921365538189</v>
+        <v>0.2597305119999191</v>
       </c>
       <c r="H24">
-        <v>0.3801556237209383</v>
+        <v>6.596253068202884E-07</v>
       </c>
       <c r="I24">
-        <v>0.3100015924873674</v>
+        <v>0.001162191545243552</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2545787065666829</v>
       </c>
       <c r="K24">
-        <v>1.818462170516369</v>
+        <v>0.2878595749838304</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.118910570469893</v>
       </c>
       <c r="N24">
-        <v>0.4926823126687774</v>
+        <v>0.3752824866178912</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.802030044083061</v>
+      </c>
+      <c r="Q24">
+        <v>1.03192296300341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.261336783971188</v>
+        <v>1.136220916392404</v>
       </c>
       <c r="C25">
-        <v>0.2717153343530896</v>
+        <v>0.1430155920250655</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.685875808135918</v>
+        <v>0.1031832650880347</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5232956988761401</v>
+        <v>0.2528543544480328</v>
       </c>
       <c r="H25">
-        <v>0.3598052896018373</v>
+        <v>0.000287961315782348</v>
       </c>
       <c r="I25">
-        <v>0.2961578337680635</v>
+        <v>0.001620959592377069</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2578090553791483</v>
       </c>
       <c r="K25">
-        <v>1.477675883342897</v>
+        <v>0.2918817901467889</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9244992853104748</v>
       </c>
       <c r="N25">
-        <v>0.5707263405999257</v>
+        <v>0.3134441937907297</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8302055642037445</v>
+      </c>
+      <c r="Q25">
+        <v>1.023705609251493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9606574431226989</v>
+        <v>0.9340774388941213</v>
       </c>
       <c r="C2">
-        <v>0.136685354745552</v>
+        <v>0.1249603734986806</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09319977757305509</v>
+        <v>0.08982692544441662</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2511121389017035</v>
+        <v>0.2198222884401488</v>
       </c>
       <c r="H2">
-        <v>0.0009386141895605382</v>
+        <v>0.000658646371406002</v>
       </c>
       <c r="I2">
-        <v>0.001711806618561962</v>
+        <v>0.001297209336097005</v>
       </c>
       <c r="J2">
-        <v>0.2620803083639629</v>
+        <v>0.2811507189214595</v>
       </c>
       <c r="K2">
-        <v>0.2977170459959986</v>
+        <v>0.2764986305605746</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1410110346299494</v>
       </c>
       <c r="M2">
-        <v>0.781074716880596</v>
+        <v>0.07303351107400857</v>
       </c>
       <c r="N2">
-        <v>0.267403753576076</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7822696320911575</v>
       </c>
       <c r="P2">
-        <v>0.8513395485188724</v>
+        <v>0.2732370936002724</v>
       </c>
       <c r="Q2">
-        <v>1.028642317413301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8410411245536835</v>
+      </c>
+      <c r="S2">
+        <v>0.9746559188240269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8373147447244094</v>
+        <v>0.8174409007439749</v>
       </c>
       <c r="C3">
-        <v>0.1328122607798221</v>
+        <v>0.1196774525883768</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08605007587671665</v>
+        <v>0.08330825215583815</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2492843614208056</v>
+        <v>0.2199957660956073</v>
       </c>
       <c r="H3">
-        <v>0.001636206000970364</v>
+        <v>0.00121660625504727</v>
       </c>
       <c r="I3">
-        <v>0.002413970855107195</v>
+        <v>0.00178073166854098</v>
       </c>
       <c r="J3">
-        <v>0.2647434830358009</v>
+        <v>0.2826053708689145</v>
       </c>
       <c r="K3">
-        <v>0.3009214343678437</v>
+        <v>0.280587763956186</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.145713510844601</v>
       </c>
       <c r="M3">
-        <v>0.6834768573221339</v>
+        <v>0.07297863413819972</v>
       </c>
       <c r="N3">
-        <v>0.2365452870869404</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6849626998063201</v>
       </c>
       <c r="P3">
-        <v>0.8678319957211542</v>
+        <v>0.241944947400043</v>
       </c>
       <c r="Q3">
-        <v>1.030118690383034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8535705439632402</v>
+      </c>
+      <c r="S3">
+        <v>0.9800513874185839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7611572158132844</v>
+        <v>0.7452479922443729</v>
       </c>
       <c r="C4">
-        <v>0.1304276633075325</v>
+        <v>0.1164650640387528</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08162622999547864</v>
+        <v>0.07926327307956527</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2484130136640132</v>
+        <v>0.2203527390564304</v>
       </c>
       <c r="H4">
-        <v>0.002182112116614121</v>
+        <v>0.001661677540406914</v>
       </c>
       <c r="I4">
-        <v>0.002974849782633626</v>
+        <v>0.002191054753163613</v>
       </c>
       <c r="J4">
-        <v>0.2665629265938705</v>
+        <v>0.2835727238528563</v>
       </c>
       <c r="K4">
-        <v>0.3030649830293424</v>
+        <v>0.2832230704664873</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1487518074491057</v>
       </c>
       <c r="M4">
-        <v>0.6233767553419227</v>
+        <v>0.07339022368899251</v>
       </c>
       <c r="N4">
-        <v>0.2176039161778505</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6250231296266264</v>
       </c>
       <c r="P4">
-        <v>0.8785463416808597</v>
+        <v>0.222751444667864</v>
       </c>
       <c r="Q4">
-        <v>1.031937065732194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8619024689601247</v>
+      </c>
+      <c r="S4">
+        <v>0.9840809058573683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7293548833805232</v>
+        <v>0.715028438517237</v>
       </c>
       <c r="C5">
-        <v>0.1295265639561443</v>
+        <v>0.1152512907614316</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0797533180035721</v>
+        <v>0.07754342022187544</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2478847514739115</v>
+        <v>0.2203347004465002</v>
       </c>
       <c r="H5">
-        <v>0.002434803577030409</v>
+        <v>0.001869378494394169</v>
       </c>
       <c r="I5">
-        <v>0.003309495023965159</v>
+        <v>0.002472667418498276</v>
       </c>
       <c r="J5">
-        <v>0.2672261650754493</v>
+        <v>0.2838575134217365</v>
       </c>
       <c r="K5">
-        <v>0.3037580793139441</v>
+        <v>0.2841133862656768</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1499080963742845</v>
       </c>
       <c r="M5">
-        <v>0.5988261302296536</v>
+        <v>0.0736273881665328</v>
       </c>
       <c r="N5">
-        <v>0.2099437561563207</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6005341578891006</v>
       </c>
       <c r="P5">
-        <v>0.8832004542274419</v>
+        <v>0.2149925551478304</v>
       </c>
       <c r="Q5">
-        <v>1.032145376049215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8656142824558053</v>
+      </c>
+      <c r="S5">
+        <v>0.9851603589067395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7232585538056924</v>
+        <v>0.7091989727512953</v>
       </c>
       <c r="C6">
-        <v>0.1294672842423772</v>
+        <v>0.1151596646256294</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0793665706515192</v>
+        <v>0.07718293285379474</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2475146895508473</v>
+        <v>0.2200618277286708</v>
       </c>
       <c r="H6">
-        <v>0.002480661028009645</v>
+        <v>0.001907245403683588</v>
       </c>
       <c r="I6">
-        <v>0.003465429691805078</v>
+        <v>0.002636068836681105</v>
       </c>
       <c r="J6">
-        <v>0.2671879538687847</v>
+        <v>0.2837498223410222</v>
       </c>
       <c r="K6">
-        <v>0.303602608149717</v>
+        <v>0.2840018144914982</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1499567908999531</v>
       </c>
       <c r="M6">
-        <v>0.5947299439800275</v>
+        <v>0.07362124148494864</v>
       </c>
       <c r="N6">
-        <v>0.2087433168340169</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.596448326016116</v>
       </c>
       <c r="P6">
-        <v>0.8841590751812944</v>
+        <v>0.2137763646335742</v>
       </c>
       <c r="Q6">
-        <v>1.031270296215567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8664366398761061</v>
+      </c>
+      <c r="S6">
+        <v>0.9844497723665597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7585116652842601</v>
+        <v>0.7422267633134538</v>
       </c>
       <c r="C7">
-        <v>0.1306641874778123</v>
+        <v>0.1166513783074947</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08139552945413797</v>
+        <v>0.07907125217758804</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2476256073073415</v>
+        <v>0.2213008911418441</v>
       </c>
       <c r="H7">
-        <v>0.002190923481756646</v>
+        <v>0.00167135315269451</v>
       </c>
       <c r="I7">
-        <v>0.003232973629625491</v>
+        <v>0.002494072019645799</v>
       </c>
       <c r="J7">
-        <v>0.2661604264754942</v>
+        <v>0.2805849472706541</v>
       </c>
       <c r="K7">
-        <v>0.3023298624645658</v>
+        <v>0.2822621061710588</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1482412385657135</v>
       </c>
       <c r="M7">
-        <v>0.6229997484290379</v>
+        <v>0.07318189689748955</v>
       </c>
       <c r="N7">
-        <v>0.2176967032615806</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6239763440377573</v>
       </c>
       <c r="P7">
-        <v>0.8791050324197762</v>
+        <v>0.2227830240266258</v>
       </c>
       <c r="Q7">
-        <v>1.029423120978834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8627772122278614</v>
+      </c>
+      <c r="S7">
+        <v>0.9801248850201176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9152559438149694</v>
+        <v>0.8896597279292564</v>
       </c>
       <c r="C8">
-        <v>0.1356897865694613</v>
+        <v>0.1232150723960075</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09046971921947744</v>
+        <v>0.08743593567016106</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2494020449687326</v>
+        <v>0.2245252818603944</v>
       </c>
       <c r="H8">
-        <v>0.001159023073515231</v>
+        <v>0.0008381666909685892</v>
       </c>
       <c r="I8">
-        <v>0.00223289898184742</v>
+        <v>0.001806802074624692</v>
       </c>
       <c r="J8">
-        <v>0.2624217440828289</v>
+        <v>0.2728508442523037</v>
       </c>
       <c r="K8">
-        <v>0.2978097612771045</v>
+        <v>0.2761102403350293</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1417419994941955</v>
       </c>
       <c r="M8">
-        <v>0.747395743491964</v>
+        <v>0.07243839507378169</v>
       </c>
       <c r="N8">
-        <v>0.2570242416769588</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.746444806594738</v>
       </c>
       <c r="P8">
-        <v>0.8576154412526265</v>
+        <v>0.2625042008893956</v>
       </c>
       <c r="Q8">
-        <v>1.025654250783077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8470230762573863</v>
+      </c>
+      <c r="S8">
+        <v>0.9681838869917954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.223276722316228</v>
+        <v>1.179639976082541</v>
       </c>
       <c r="C9">
-        <v>0.1450719857181397</v>
+        <v>0.136167769214957</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1083696401988945</v>
+        <v>0.1037443005745757</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2563690466973725</v>
+        <v>0.2280160742808093</v>
       </c>
       <c r="H9">
-        <v>0.0001161927396848839</v>
+        <v>5.075283765543226E-05</v>
       </c>
       <c r="I9">
-        <v>0.0009657286671194143</v>
+        <v>0.0009343331929789755</v>
       </c>
       <c r="J9">
-        <v>0.2573202587523653</v>
+        <v>0.2679701033959958</v>
       </c>
       <c r="K9">
-        <v>0.2917017483223816</v>
+        <v>0.2672598666258033</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1313015605165706</v>
       </c>
       <c r="M9">
-        <v>0.9901318667625958</v>
+        <v>0.07507393170696552</v>
       </c>
       <c r="N9">
-        <v>0.3338984235360272</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9876684627335521</v>
       </c>
       <c r="P9">
-        <v>0.819310651289598</v>
+        <v>0.3404755614110684</v>
       </c>
       <c r="Q9">
-        <v>1.030273355702079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8192441203206329</v>
+      </c>
+      <c r="S9">
+        <v>0.9605366357318701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.436887857479718</v>
+        <v>1.377816377400137</v>
       </c>
       <c r="C10">
-        <v>0.1531114144144823</v>
+        <v>0.1465791433879389</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1159508170732089</v>
+        <v>0.1105418830755305</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2587886840646831</v>
+        <v>0.2385808659639537</v>
       </c>
       <c r="H10">
-        <v>0.0002032641573275207</v>
+        <v>0.0002301330620393394</v>
       </c>
       <c r="I10">
-        <v>0.0009004116656265992</v>
+        <v>0.001082353812051018</v>
       </c>
       <c r="J10">
-        <v>0.252440361359028</v>
+        <v>0.2501661931520545</v>
       </c>
       <c r="K10">
-        <v>0.2846659940731335</v>
+        <v>0.2571493141603405</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1228670491059294</v>
       </c>
       <c r="M10">
-        <v>1.166284751067991</v>
+        <v>0.07742500726090995</v>
       </c>
       <c r="N10">
-        <v>0.3731786433919808</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.158545379636195</v>
       </c>
       <c r="P10">
-        <v>0.7978415455936769</v>
+        <v>0.3800416547791627</v>
       </c>
       <c r="Q10">
-        <v>1.025543084657585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8081450939901629</v>
+      </c>
+      <c r="S10">
+        <v>0.9390693418269365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.446799116750753</v>
+        <v>1.385990687539675</v>
       </c>
       <c r="C11">
-        <v>0.1676104907656892</v>
+        <v>0.1617794535613442</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07927415796032733</v>
+        <v>0.07549385886321502</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2277596616759539</v>
+        <v>0.2310523580530699</v>
       </c>
       <c r="H11">
-        <v>0.0187540079589148</v>
+        <v>0.01876500593566988</v>
       </c>
       <c r="I11">
-        <v>0.001429775747380013</v>
+        <v>0.001744207218117744</v>
       </c>
       <c r="J11">
-        <v>0.233768098083921</v>
+        <v>0.2152784969494732</v>
       </c>
       <c r="K11">
-        <v>0.2551266269466055</v>
+        <v>0.2293050784609125</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1115612676535847</v>
       </c>
       <c r="M11">
-        <v>1.232756546540514</v>
+        <v>0.06879678659729294</v>
       </c>
       <c r="N11">
-        <v>0.2545863917762432</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.215726967892977</v>
       </c>
       <c r="P11">
-        <v>0.8224017085157769</v>
+        <v>0.2593417136333187</v>
       </c>
       <c r="Q11">
-        <v>0.9207858259505741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8441852979569759</v>
+      </c>
+      <c r="S11">
+        <v>0.8291710492245556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.413071138732505</v>
+        <v>1.355666614368886</v>
       </c>
       <c r="C12">
-        <v>0.1800721848532874</v>
+        <v>0.1739374221022842</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05550701407270964</v>
+        <v>0.0528258877123946</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2036103823981037</v>
+        <v>0.2169465850033987</v>
       </c>
       <c r="H12">
-        <v>0.05742078050999311</v>
+        <v>0.05741972163877307</v>
       </c>
       <c r="I12">
-        <v>0.001429784706591164</v>
+        <v>0.001743986931638908</v>
       </c>
       <c r="J12">
-        <v>0.2201779349396631</v>
+        <v>0.2014287804362187</v>
       </c>
       <c r="K12">
-        <v>0.2347260796413799</v>
+        <v>0.2118003844891501</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1054508790264697</v>
       </c>
       <c r="M12">
-        <v>1.251519625424834</v>
+        <v>0.06213508479189223</v>
       </c>
       <c r="N12">
-        <v>0.1658356093849562</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.2302258839442</v>
       </c>
       <c r="P12">
-        <v>0.8520379959702424</v>
+        <v>0.1692386107626263</v>
       </c>
       <c r="Q12">
-        <v>0.8411661573278479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8798713386997434</v>
+      </c>
+      <c r="S12">
+        <v>0.7545637318416993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.340556724011378</v>
+        <v>1.291736807281126</v>
       </c>
       <c r="C13">
-        <v>0.1918919072392242</v>
+        <v>0.185371732093472</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03992650419664923</v>
+        <v>0.03804667186493482</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1820439414651602</v>
+        <v>0.1922936455301709</v>
       </c>
       <c r="H13">
-        <v>0.1131703770977026</v>
+        <v>0.1131534013192521</v>
       </c>
       <c r="I13">
-        <v>0.00138966991991385</v>
+        <v>0.001678388030645905</v>
       </c>
       <c r="J13">
-        <v>0.2089952170579963</v>
+        <v>0.1982834172841201</v>
       </c>
       <c r="K13">
-        <v>0.2189050812275166</v>
+        <v>0.1999739742748012</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1019145966412314</v>
       </c>
       <c r="M13">
-        <v>1.234413650679613</v>
+        <v>0.0565616847204371</v>
       </c>
       <c r="N13">
-        <v>0.09542393681724093</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.214404557889509</v>
       </c>
       <c r="P13">
-        <v>0.8871928397568567</v>
+        <v>0.09795612459858916</v>
       </c>
       <c r="Q13">
-        <v>0.7719947451126217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.9147882454327032</v>
+      </c>
+      <c r="S13">
+        <v>0.6996980048284343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.27197658082801</v>
+        <v>1.231307965773482</v>
       </c>
       <c r="C14">
-        <v>0.2002292315196854</v>
+        <v>0.1934619025963684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03386661315959305</v>
+        <v>0.0324405379710373</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.168228910201794</v>
+        <v>0.1717274917338116</v>
       </c>
       <c r="H14">
-        <v>0.1625230214926887</v>
+        <v>0.1624904850564519</v>
       </c>
       <c r="I14">
-        <v>0.001436555353072855</v>
+        <v>0.00170811460314102</v>
       </c>
       <c r="J14">
-        <v>0.2022785426750673</v>
+        <v>0.1992604707833703</v>
       </c>
       <c r="K14">
-        <v>0.2100629047655929</v>
+        <v>0.1940819775064675</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1003580077146951</v>
       </c>
       <c r="M14">
-        <v>1.206215191290369</v>
+        <v>0.0532682037319514</v>
       </c>
       <c r="N14">
-        <v>0.05746905065236518</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.189518751317962</v>
       </c>
       <c r="P14">
-        <v>0.914847781615606</v>
+        <v>0.05956437446959129</v>
       </c>
       <c r="Q14">
-        <v>0.7285865764399801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.9389074408420441</v>
+      </c>
+      <c r="S14">
+        <v>0.6691657612651838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.246371603398643</v>
+        <v>1.208649553098695</v>
       </c>
       <c r="C15">
-        <v>0.2020354122732329</v>
+        <v>0.1952972641973645</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03302978461271089</v>
+        <v>0.0317116880689311</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1650479127204534</v>
+        <v>0.1651408263735021</v>
       </c>
       <c r="H15">
-        <v>0.1750354485432979</v>
+        <v>0.174995104561944</v>
       </c>
       <c r="I15">
-        <v>0.001561483638392147</v>
+        <v>0.00184365939529485</v>
       </c>
       <c r="J15">
-        <v>0.2009814830025185</v>
+        <v>0.2008898700945316</v>
       </c>
       <c r="K15">
-        <v>0.2084844603413032</v>
+        <v>0.193344101848151</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1002475744524549</v>
       </c>
       <c r="M15">
-        <v>1.191723736592422</v>
+        <v>0.05259877438271854</v>
       </c>
       <c r="N15">
-        <v>0.04964270131992521</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.176863956441878</v>
       </c>
       <c r="P15">
-        <v>0.922375740712539</v>
+        <v>0.05167129585559493</v>
       </c>
       <c r="Q15">
-        <v>0.7190975492030844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.9442289994216395</v>
+      </c>
+      <c r="S15">
+        <v>0.6641444933932874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.169810919193168</v>
+        <v>1.140384836080699</v>
       </c>
       <c r="C16">
-        <v>0.1958772846650589</v>
+        <v>0.1897579227854322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03320816852276143</v>
+        <v>0.03195231001761967</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1678644273098477</v>
+        <v>0.1535980712619605</v>
       </c>
       <c r="H16">
-        <v>0.1623084346608721</v>
+        <v>0.1622203621462148</v>
       </c>
       <c r="I16">
-        <v>0.001733483371346267</v>
+        <v>0.001963345127408367</v>
       </c>
       <c r="J16">
-        <v>0.2049509447503262</v>
+        <v>0.2163459561283645</v>
       </c>
       <c r="K16">
-        <v>0.2141301429408529</v>
+        <v>0.2002060117530675</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1030599415045987</v>
       </c>
       <c r="M16">
-        <v>1.119528050379273</v>
+        <v>0.05388729329707775</v>
       </c>
       <c r="N16">
-        <v>0.0490727915198832</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.113135641724796</v>
       </c>
       <c r="P16">
-        <v>0.9218934382163582</v>
+        <v>0.05138678545577235</v>
       </c>
       <c r="Q16">
-        <v>0.7332319760471009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.9329293551071487</v>
+      </c>
+      <c r="S16">
+        <v>0.6901095192835456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.14720088770062</v>
+        <v>1.1192653697656</v>
       </c>
       <c r="C17">
-        <v>0.1866229757844309</v>
+        <v>0.180745679720971</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03573704403344591</v>
+        <v>0.0342549428486314</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1772510176765429</v>
+        <v>0.1566597020703533</v>
       </c>
       <c r="H17">
-        <v>0.1245323671285661</v>
+        <v>0.1244141227598732</v>
       </c>
       <c r="I17">
-        <v>0.00186846541912189</v>
+        <v>0.002068523225979391</v>
       </c>
       <c r="J17">
-        <v>0.2115476951543869</v>
+        <v>0.2285569255509721</v>
       </c>
       <c r="K17">
-        <v>0.2230127037618033</v>
+        <v>0.208619510557039</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1064020822804634</v>
       </c>
       <c r="M17">
-        <v>1.079214958781648</v>
+        <v>0.05638004861042134</v>
       </c>
       <c r="N17">
-        <v>0.06670068296531895</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.076390930923282</v>
       </c>
       <c r="P17">
-        <v>0.907018852670987</v>
+        <v>0.06948373351755777</v>
       </c>
       <c r="Q17">
-        <v>0.766860883099703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9134058015724449</v>
+      </c>
+      <c r="S17">
+        <v>0.7257281093403591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.170236521320135</v>
+        <v>1.139069074481313</v>
       </c>
       <c r="C18">
-        <v>0.1742502918038156</v>
+        <v>0.1684403216120245</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04481173243400072</v>
+        <v>0.04271486728684604</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1945695567478083</v>
+        <v>0.1697807390630928</v>
       </c>
       <c r="H18">
-        <v>0.07168409617720073</v>
+        <v>0.07156353720473874</v>
       </c>
       <c r="I18">
-        <v>0.001663968246165659</v>
+        <v>0.001809275958341239</v>
       </c>
       <c r="J18">
-        <v>0.2217015098806669</v>
+        <v>0.2406651947190994</v>
       </c>
       <c r="K18">
-        <v>0.2370742680501259</v>
+        <v>0.2208541701228679</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1111998742358589</v>
       </c>
       <c r="M18">
-        <v>1.061637895745378</v>
+        <v>0.06060123454661337</v>
       </c>
       <c r="N18">
-        <v>0.111942508218533</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.060231227763893</v>
       </c>
       <c r="P18">
-        <v>0.8794885979286065</v>
+        <v>0.1155563159286146</v>
       </c>
       <c r="Q18">
-        <v>0.8248033441022216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8841677048095917</v>
+      </c>
+      <c r="S18">
+        <v>0.7794630064692143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224665117502667</v>
+        <v>1.187015578508834</v>
       </c>
       <c r="C19">
-        <v>0.1628174555362421</v>
+        <v>0.156890900998043</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06463632615361803</v>
+        <v>0.06150074660016713</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2171664557733024</v>
+        <v>0.1888791020428116</v>
       </c>
       <c r="H19">
-        <v>0.02637253508851956</v>
+        <v>0.02628303946637089</v>
       </c>
       <c r="I19">
-        <v>0.00174126037481237</v>
+        <v>0.001930315045836295</v>
       </c>
       <c r="J19">
-        <v>0.2339097164095705</v>
+        <v>0.2524506399020865</v>
       </c>
       <c r="K19">
-        <v>0.2549534247811955</v>
+        <v>0.2358269535127064</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1169680009184848</v>
       </c>
       <c r="M19">
-        <v>1.063453331095729</v>
+        <v>0.06612192335706091</v>
       </c>
       <c r="N19">
-        <v>0.1915948639931813</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.062300464644579</v>
       </c>
       <c r="P19">
-        <v>0.8489808826246232</v>
+        <v>0.1964283169807288</v>
       </c>
       <c r="Q19">
-        <v>0.8982805034536483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8533635398836381</v>
+      </c>
+      <c r="S19">
+        <v>0.8443769953967859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.373470843900179</v>
+        <v>1.320224951668052</v>
       </c>
       <c r="C20">
-        <v>0.1519233419154276</v>
+        <v>0.1454195087390531</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1131175942971829</v>
+        <v>0.1078129209471648</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2555263832557912</v>
+        <v>0.2269738702243131</v>
       </c>
       <c r="H20">
-        <v>0.0001181933461786855</v>
+        <v>0.0001264717725875109</v>
       </c>
       <c r="I20">
-        <v>0.001658187830405389</v>
+        <v>0.001948721306124668</v>
       </c>
       <c r="J20">
-        <v>0.2523435280646922</v>
+        <v>0.2614546981687198</v>
       </c>
       <c r="K20">
-        <v>0.2840979785284539</v>
+        <v>0.2585021816479092</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1245339886831704</v>
       </c>
       <c r="M20">
-        <v>1.119854625969509</v>
+        <v>0.07620928313148845</v>
       </c>
       <c r="N20">
-        <v>0.3627459364830656</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.116018380547246</v>
       </c>
       <c r="P20">
-        <v>0.8053654631772105</v>
+        <v>0.3697453491002989</v>
       </c>
       <c r="Q20">
-        <v>1.018329900751766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8119456395833566</v>
+      </c>
+      <c r="S20">
+        <v>0.9420567468408194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.552944415982154</v>
+        <v>1.477652022916004</v>
       </c>
       <c r="C21">
-        <v>0.1564573363175086</v>
+        <v>0.14954230784695</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1272471992272202</v>
+        <v>0.1217071535998144</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2642031751328417</v>
+        <v>0.2771604941623664</v>
       </c>
       <c r="H21">
-        <v>0.0001660702603463182</v>
+        <v>0.0002124627442738891</v>
       </c>
       <c r="I21">
-        <v>0.001685554199084116</v>
+        <v>0.002071840827675864</v>
       </c>
       <c r="J21">
-        <v>0.25216465546373</v>
+        <v>0.2171621404602391</v>
       </c>
       <c r="K21">
-        <v>0.2843520202723084</v>
+        <v>0.2508606784453669</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1185111910086967</v>
       </c>
       <c r="M21">
-        <v>1.25725681054206</v>
+        <v>0.07841074851346264</v>
       </c>
       <c r="N21">
-        <v>0.4198416674604317</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.235994157531707</v>
       </c>
       <c r="P21">
-        <v>0.7846890410318181</v>
+        <v>0.4262410595543429</v>
       </c>
       <c r="Q21">
-        <v>1.036623957071569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8062076159290612</v>
+      </c>
+      <c r="S21">
+        <v>0.9170739915115007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.668012008382135</v>
+        <v>1.577797324071696</v>
       </c>
       <c r="C22">
-        <v>0.1595790475511976</v>
+        <v>0.1523007928485995</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.134019995674624</v>
+        <v>0.1285201144504882</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2692628376829731</v>
+        <v>0.3164389687048939</v>
       </c>
       <c r="H22">
-        <v>0.0004232755218482875</v>
+        <v>0.0004618143766891292</v>
       </c>
       <c r="I22">
-        <v>0.001547675807500148</v>
+        <v>0.001893637735638443</v>
       </c>
       <c r="J22">
-        <v>0.2517796923692686</v>
+        <v>0.1961802228793328</v>
       </c>
       <c r="K22">
-        <v>0.284041472717977</v>
+        <v>0.2451651615671508</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1145656350071764</v>
       </c>
       <c r="M22">
-        <v>1.346286096072987</v>
+        <v>0.07975586279756897</v>
       </c>
       <c r="N22">
-        <v>0.4480543256021008</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.312317072483125</v>
       </c>
       <c r="P22">
-        <v>0.7725864695916869</v>
+        <v>0.453843463478961</v>
       </c>
       <c r="Q22">
-        <v>1.046716801241431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.8049362053119538</v>
+      </c>
+      <c r="S22">
+        <v>0.8970735395193117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.60932721508803</v>
+        <v>1.528197645526234</v>
       </c>
       <c r="C23">
-        <v>0.1575744302639634</v>
+        <v>0.1506664227011427</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1306487718091169</v>
+        <v>0.1250148309426535</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2674282229703095</v>
+        <v>0.2905381444670638</v>
       </c>
       <c r="H23">
-        <v>0.0002736031110004422</v>
+        <v>0.0003207919515699764</v>
       </c>
       <c r="I23">
-        <v>0.001304812706274916</v>
+        <v>0.001614296006930083</v>
       </c>
       <c r="J23">
-        <v>0.2524290759607766</v>
+        <v>0.2096315897708969</v>
       </c>
       <c r="K23">
-        <v>0.2850271120047658</v>
+        <v>0.2495427241473003</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1170766482246641</v>
       </c>
       <c r="M23">
-        <v>1.298834513269526</v>
+        <v>0.07960731453784931</v>
       </c>
       <c r="N23">
-        <v>0.4327498967790291</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.273526751952943</v>
       </c>
       <c r="P23">
-        <v>0.7782071048362127</v>
+        <v>0.4390273574977783</v>
       </c>
       <c r="Q23">
-        <v>1.04409615200197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.8034854590964642</v>
+      </c>
+      <c r="S23">
+        <v>0.9140309436601655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.382182137769178</v>
+        <v>1.328267752763651</v>
       </c>
       <c r="C24">
-        <v>0.1505623063733736</v>
+        <v>0.1437838731640539</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.117461633488567</v>
+        <v>0.1119861656243764</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2597305119999191</v>
+        <v>0.230473667301041</v>
       </c>
       <c r="H24">
-        <v>6.596253068202884E-07</v>
+        <v>1.390222300790001E-05</v>
       </c>
       <c r="I24">
-        <v>0.001162191545243552</v>
+        <v>0.001355065296980484</v>
       </c>
       <c r="J24">
-        <v>0.2545787065666829</v>
+        <v>0.263838837740046</v>
       </c>
       <c r="K24">
-        <v>0.2878595749838304</v>
+        <v>0.2617772354349555</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1257921292789739</v>
       </c>
       <c r="M24">
-        <v>1.118910570469893</v>
+        <v>0.07741396210376372</v>
       </c>
       <c r="N24">
-        <v>0.3752824866178912</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.115200193730232</v>
       </c>
       <c r="P24">
-        <v>0.802030044083061</v>
+        <v>0.382453578127496</v>
       </c>
       <c r="Q24">
-        <v>1.03192296300341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8080999412748753</v>
+      </c>
+      <c r="S24">
+        <v>0.9544898635250121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136220916392404</v>
+        <v>1.098272144340342</v>
       </c>
       <c r="C25">
-        <v>0.1430155920250655</v>
+        <v>0.133402905732396</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1031832650880347</v>
+        <v>0.09895414716480744</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2528543544480328</v>
+        <v>0.2230441961542056</v>
       </c>
       <c r="H25">
-        <v>0.000287961315782348</v>
+        <v>0.00016640426589698</v>
       </c>
       <c r="I25">
-        <v>0.001620959592377069</v>
+        <v>0.001580002920679391</v>
       </c>
       <c r="J25">
-        <v>0.2578090553791483</v>
+        <v>0.2719487012834136</v>
       </c>
       <c r="K25">
-        <v>0.2918817901467889</v>
+        <v>0.2686909375176256</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1336423309525507</v>
       </c>
       <c r="M25">
-        <v>0.9244992853104748</v>
+        <v>0.0736930779872278</v>
       </c>
       <c r="N25">
-        <v>0.3134441937907297</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9234466367304037</v>
       </c>
       <c r="P25">
-        <v>0.8302055642037445</v>
+        <v>0.3198047308618754</v>
       </c>
       <c r="Q25">
-        <v>1.023705609251493</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8269503784570276</v>
+      </c>
+      <c r="S25">
+        <v>0.9598051437944264</v>
       </c>
     </row>
   </sheetData>
